--- a/pbelasting/input/190324_koppeltabel.xlsx
+++ b/pbelasting/input/190324_koppeltabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://waternet.sharepoint.com/sites/0182/Intern/Stand van zake waterkwaliteit/R/pbelasting/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1729.N.19 AGV data analyse\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="6_{88775F5B-9153-49A4-BAA6-16670AFEB874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87AF6C00-5190-4B2B-85D5-62F4996194AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58999CAB-F88D-4209-BBA9-A2E93A41E1A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namenBalansen201903240706" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$L$2:$N$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$J$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$K$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="1161">
   <si>
     <t>2010-GAF_F002.xlsx</t>
   </si>
@@ -3518,6 +3516,9 @@
   </si>
   <si>
     <t>pol</t>
+  </si>
+  <si>
+    <t>versie2</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4199,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Moria, laura" refreshedDate="43559.629596180559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="218" xr:uid="{D0558155-9A6D-4100-B3E1-24E053C9B007}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="G1:H1048576" sheet="namenBalansen201903240706"/>
+    <worksheetSource ref="H1:I1048576" sheet="namenBalansen201903240706"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="KRW" numFmtId="0">
@@ -5144,7 +5145,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5618,24 +5619,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>558</v>
       </c>
@@ -5646,28 +5646,31 @@
         <v>387</v>
       </c>
       <c r="D1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1" t="s">
         <v>388</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>389</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>395</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>390</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>394</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>391</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5678,19 +5681,22 @@
         <v>212</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>2010</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>396</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5700,17 +5706,20 @@
       <c r="C3" t="s">
         <v>214</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>397</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5721,19 +5730,22 @@
         <v>212</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2100</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>397</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5744,25 +5756,28 @@
         <v>212</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>2110</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>398</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>503</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>534</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5772,17 +5787,20 @@
       <c r="C6" t="s">
         <v>212</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>399</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5792,17 +5810,20 @@
       <c r="C7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>399</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5813,25 +5834,28 @@
         <v>218</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>2120</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>399</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>503</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>534</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5841,20 +5865,23 @@
       <c r="C9" t="s">
         <v>214</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>219</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>634</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5864,17 +5891,20 @@
       <c r="C10" t="s">
         <v>214</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>400</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5885,25 +5915,28 @@
         <v>221</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>2130</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>400</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>503</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>534</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5913,20 +5946,23 @@
       <c r="C12" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>223</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>635</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5936,20 +5972,23 @@
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>224</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>636</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5959,17 +5998,20 @@
       <c r="C14" t="s">
         <v>214</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>401</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5980,19 +6022,22 @@
         <v>212</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>2140</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>401</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6003,19 +6048,22 @@
         <v>214</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2150</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>402</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6025,17 +6073,20 @@
       <c r="C17" t="s">
         <v>212</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>403</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6046,19 +6097,22 @@
         <v>217</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>2210</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>403</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1113</v>
       </c>
@@ -6068,11 +6122,14 @@
       <c r="C19" t="s">
         <v>214</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1110</v>
       </c>
@@ -6082,11 +6139,14 @@
       <c r="C20" t="s">
         <v>214</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>617</v>
       </c>
@@ -6096,26 +6156,29 @@
       <c r="C21" t="s">
         <v>212</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>587</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>510</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>509</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>510</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -6126,19 +6189,22 @@
         <v>212</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>2220</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>404</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6149,19 +6215,22 @@
         <v>212</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>2230</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>405</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -6172,19 +6241,22 @@
         <v>212</v>
       </c>
       <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>2240</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>406</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>559</v>
       </c>
@@ -6194,31 +6266,37 @@
       <c r="C25" t="s">
         <v>212</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>560</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>561</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>562</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>561</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -6228,20 +6306,23 @@
       <c r="C27" t="s">
         <v>212</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>231</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>638</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -6252,19 +6333,22 @@
         <v>217</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>2250</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>633</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -6275,19 +6359,22 @@
         <v>212</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>2270</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>407</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -6297,17 +6384,20 @@
       <c r="C30" t="s">
         <v>214</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>408</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -6317,17 +6407,20 @@
       <c r="C31" t="s">
         <v>214</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>408</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -6338,19 +6431,22 @@
         <v>212</v>
       </c>
       <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>2290</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>409</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6361,19 +6457,22 @@
         <v>212</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>2300</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>410</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -6384,19 +6483,22 @@
         <v>212</v>
       </c>
       <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>2310</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>411</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -6406,17 +6508,20 @@
       <c r="C35" t="s">
         <v>212</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
         <v>412</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -6426,17 +6531,20 @@
       <c r="C36" t="s">
         <v>212</v>
       </c>
-      <c r="F36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>412</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -6447,19 +6555,22 @@
         <v>217</v>
       </c>
       <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>2330</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>412</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -6470,19 +6581,22 @@
         <v>212</v>
       </c>
       <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>2340</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>413</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -6492,155 +6606,194 @@
       <c r="C39" t="s">
         <v>214</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>414</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>1077</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
         <v>242</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>637</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>504</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>530</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>1072</v>
       </c>
       <c r="B46" t="s">
         <v>624</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
         <v>624</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>641</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>504</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>530</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="K46" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>1068</v>
       </c>
       <c r="B49" t="s">
         <v>244</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>244</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>639</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>504</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>530</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
       <c r="C50" t="s">
         <v>214</v>
       </c>
-      <c r="F50" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>415</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="K50" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>1065</v>
       </c>
@@ -6650,234 +6803,330 @@
       <c r="C52" t="s">
         <v>214</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>245</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>640</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>504</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>530</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="K52" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>618</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>623</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>710</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>504</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>530</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>1</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>1</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>1055</v>
       </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" t="s">
+        <v>712</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" t="s">
-        <v>712</v>
-      </c>
-      <c r="I59">
+        <v>214</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="G59" t="s">
+        <v>416</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>416</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>416</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B62" t="s">
         <v>248</v>
       </c>
-      <c r="C60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>2400</v>
+      </c>
+      <c r="G62" t="s">
         <v>416</v>
       </c>
-      <c r="I60">
+      <c r="J62">
         <v>1</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="K62" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
-        <v>416</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" t="s">
-        <v>416</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>1047</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s">
         <v>212</v>
       </c>
       <c r="D64">
-        <v>2400</v>
-      </c>
-      <c r="F64" t="s">
-        <v>416</v>
-      </c>
-      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2410</v>
+      </c>
+      <c r="G64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="K64" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" t="s">
+        <v>711</v>
+      </c>
+      <c r="H65" t="s">
+        <v>501</v>
+      </c>
+      <c r="I65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D66">
-        <v>2410</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
-      </c>
-      <c r="I66">
+        <v>584</v>
+      </c>
+      <c r="G66" t="s">
+        <v>649</v>
+      </c>
+      <c r="H66" t="s">
+        <v>491</v>
+      </c>
+      <c r="I66" t="s">
+        <v>537</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="J66" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C67" t="s">
-        <v>251</v>
-      </c>
-      <c r="E67" t="s">
-        <v>250</v>
-      </c>
       <c r="F67" t="s">
-        <v>711</v>
+        <v>585</v>
       </c>
       <c r="G67" t="s">
-        <v>501</v>
+        <v>653</v>
       </c>
       <c r="H67" t="s">
-        <v>526</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>491</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
@@ -6886,4364 +7135,4854 @@
       <c r="C68" t="s">
         <v>214</v>
       </c>
-      <c r="E68" t="s">
-        <v>584</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>649</v>
+        <v>253</v>
       </c>
       <c r="G68" t="s">
+        <v>654</v>
+      </c>
+      <c r="H68" t="s">
         <v>491</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>537</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
         <v>214</v>
       </c>
-      <c r="E69" t="s">
-        <v>585</v>
-      </c>
-      <c r="F69" t="s">
-        <v>653</v>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>491</v>
-      </c>
-      <c r="H69" t="s">
-        <v>537</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>41</v>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
         <v>214</v>
       </c>
-      <c r="E70" t="s">
-        <v>253</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>654</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
-        <v>491</v>
-      </c>
-      <c r="H70" t="s">
-        <v>537</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="G71" t="s">
+        <v>642</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" t="s">
-        <v>642</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>1018</v>
       </c>
       <c r="B73" t="s">
         <v>254</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
         <v>254</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>642</v>
       </c>
-      <c r="I73">
+      <c r="H73" t="s">
+        <v>502</v>
+      </c>
+      <c r="I73" t="s">
+        <v>527</v>
+      </c>
+      <c r="J73">
         <v>1</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B75" t="s">
-        <v>254</v>
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2500</v>
+      </c>
+      <c r="G74" t="s">
+        <v>419</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>2501</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" t="s">
-        <v>254</v>
+        <v>258</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>642</v>
+        <v>256</v>
       </c>
       <c r="G75" t="s">
-        <v>502</v>
-      </c>
-      <c r="H75" t="s">
-        <v>527</v>
-      </c>
-      <c r="I75">
+        <v>643</v>
+      </c>
+      <c r="I75" t="s">
+        <v>531</v>
+      </c>
+      <c r="J75">
         <v>1</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" t="s">
-        <v>255</v>
+        <v>49</v>
+      </c>
+      <c r="B76">
+        <v>2501</v>
       </c>
       <c r="C76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2501</v>
+      </c>
+      <c r="G76" t="s">
+        <v>627</v>
+      </c>
+      <c r="H76" t="s">
+        <v>505</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" t="s">
         <v>214</v>
       </c>
-      <c r="D76">
-        <v>2500</v>
-      </c>
-      <c r="F76" t="s">
-        <v>419</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77">
-        <v>2501</v>
-      </c>
-      <c r="C77" t="s">
-        <v>258</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>256</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>643</v>
       </c>
-      <c r="H77" t="s">
-        <v>531</v>
-      </c>
-      <c r="I77">
+      <c r="J77">
         <v>1</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78">
-        <v>2501</v>
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="D78">
-        <v>2501</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>627</v>
+        <v>257</v>
       </c>
       <c r="G78" t="s">
-        <v>505</v>
-      </c>
-      <c r="I78">
+        <v>644</v>
+      </c>
+      <c r="J78">
         <v>1</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="K78" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
         <v>214</v>
       </c>
-      <c r="E79" t="s">
-        <v>256</v>
-      </c>
-      <c r="F79" t="s">
-        <v>643</v>
-      </c>
-      <c r="I79">
+      <c r="D79">
         <v>1</v>
       </c>
-      <c r="J79" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>2502</v>
+      </c>
+      <c r="G79" t="s">
+        <v>420</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
         <v>214</v>
       </c>
-      <c r="E80" t="s">
-        <v>257</v>
-      </c>
-      <c r="F80" t="s">
-        <v>644</v>
-      </c>
-      <c r="I80">
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>2503</v>
+      </c>
+      <c r="G80" t="s">
+        <v>421</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D81">
-        <v>2502</v>
-      </c>
-      <c r="F81" t="s">
-        <v>420</v>
-      </c>
-      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2504</v>
+      </c>
+      <c r="G81" t="s">
+        <v>422</v>
+      </c>
+      <c r="J81">
         <v>1</v>
       </c>
-      <c r="J81" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
         <v>214</v>
       </c>
       <c r="D82">
-        <v>2503</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>421</v>
-      </c>
-      <c r="I82">
+        <v>262</v>
+      </c>
+      <c r="G82" t="s">
+        <v>645</v>
+      </c>
+      <c r="J82">
         <v>1</v>
       </c>
-      <c r="J82" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D83">
-        <v>2504</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>422</v>
-      </c>
-      <c r="I83">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>646</v>
+      </c>
+      <c r="J83">
         <v>1</v>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
         <v>214</v>
       </c>
-      <c r="E84" t="s">
-        <v>262</v>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>645</v>
-      </c>
-      <c r="I84">
+        <v>264</v>
+      </c>
+      <c r="G84" t="s">
+        <v>647</v>
+      </c>
+      <c r="J84">
         <v>1</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s">
         <v>214</v>
       </c>
-      <c r="E85" t="s">
-        <v>547</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>646</v>
-      </c>
-      <c r="I85">
+        <v>265</v>
+      </c>
+      <c r="G85" t="s">
+        <v>648</v>
+      </c>
+      <c r="J85">
         <v>1</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="K85" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" t="s">
-        <v>264</v>
-      </c>
-      <c r="F86" t="s">
-        <v>647</v>
-      </c>
-      <c r="I86">
+        <v>267</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="J86" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>2510</v>
+      </c>
+      <c r="G86" t="s">
+        <v>628</v>
+      </c>
+      <c r="H86" t="s">
+        <v>505</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
         <v>214</v>
       </c>
-      <c r="E87" t="s">
-        <v>265</v>
-      </c>
-      <c r="F87" t="s">
-        <v>648</v>
-      </c>
-      <c r="I87">
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="E87">
+        <v>2511</v>
+      </c>
+      <c r="G87" t="s">
+        <v>423</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="D88">
-        <v>2510</v>
-      </c>
-      <c r="F88" t="s">
-        <v>628</v>
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2520</v>
       </c>
       <c r="G88" t="s">
-        <v>505</v>
-      </c>
-      <c r="I88">
+        <v>424</v>
+      </c>
+      <c r="J88">
         <v>1</v>
       </c>
-      <c r="J88" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89">
-        <v>2511</v>
-      </c>
-      <c r="F89" t="s">
-        <v>423</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2530</v>
+      </c>
+      <c r="G89" t="s">
+        <v>425</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
         <v>212</v>
       </c>
       <c r="D90">
-        <v>2520</v>
-      </c>
-      <c r="F90" t="s">
-        <v>424</v>
-      </c>
-      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2540</v>
+      </c>
+      <c r="G90" t="s">
+        <v>629</v>
+      </c>
+      <c r="H90" t="s">
+        <v>528</v>
+      </c>
+      <c r="I90" t="s">
+        <v>529</v>
+      </c>
+      <c r="J90">
         <v>1</v>
       </c>
-      <c r="J90" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" t="s">
-        <v>212</v>
+        <v>614</v>
       </c>
       <c r="D91">
-        <v>2530</v>
-      </c>
-      <c r="F91" t="s">
-        <v>425</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2400</v>
+      </c>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
         <v>212</v>
       </c>
       <c r="D92">
-        <v>2540</v>
-      </c>
-      <c r="F92" t="s">
-        <v>629</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>528</v>
-      </c>
-      <c r="H92" t="s">
-        <v>529</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>614</v>
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
       </c>
       <c r="D93">
-        <v>2400</v>
-      </c>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>2550</v>
+      </c>
+      <c r="G93" t="s">
+        <v>631</v>
+      </c>
+      <c r="H93" t="s">
+        <v>506</v>
+      </c>
+      <c r="I93" t="s">
+        <v>507</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
         <v>212</v>
       </c>
-      <c r="F94" t="s">
-        <v>426</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2560</v>
+      </c>
+      <c r="G94" t="s">
+        <v>427</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>428</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" t="s">
         <v>217</v>
       </c>
-      <c r="D95">
-        <v>2550</v>
-      </c>
-      <c r="F95" t="s">
-        <v>631</v>
-      </c>
-      <c r="G95" t="s">
-        <v>506</v>
-      </c>
-      <c r="H95" t="s">
-        <v>507</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" t="s">
-        <v>273</v>
-      </c>
-      <c r="C96" t="s">
-        <v>212</v>
-      </c>
       <c r="D96">
-        <v>2560</v>
-      </c>
-      <c r="F96" t="s">
-        <v>427</v>
-      </c>
-      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>2570</v>
+      </c>
+      <c r="G96" t="s">
+        <v>428</v>
+      </c>
+      <c r="J96">
         <v>1</v>
       </c>
-      <c r="J96" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s">
         <v>212</v>
       </c>
-      <c r="F97" t="s">
-        <v>428</v>
-      </c>
-      <c r="I97">
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>429</v>
+      </c>
+      <c r="J97">
         <v>1</v>
       </c>
-      <c r="J97" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K97" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>594</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C98" t="s">
         <v>217</v>
       </c>
       <c r="D98">
-        <v>2570</v>
-      </c>
-      <c r="F98" t="s">
-        <v>428</v>
-      </c>
-      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>2600</v>
+      </c>
+      <c r="G98" t="s">
+        <v>429</v>
+      </c>
+      <c r="H98" t="s">
+        <v>535</v>
+      </c>
+      <c r="I98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J98">
         <v>1</v>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K98" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
         <v>212</v>
       </c>
-      <c r="F99" t="s">
-        <v>429</v>
-      </c>
-      <c r="I99">
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>430</v>
+      </c>
+      <c r="J99">
         <v>1</v>
       </c>
-      <c r="J99" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K99" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>594</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
         <v>217</v>
       </c>
       <c r="D100">
-        <v>2600</v>
-      </c>
-      <c r="F100" t="s">
-        <v>429</v>
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>2610</v>
       </c>
       <c r="G100" t="s">
-        <v>535</v>
-      </c>
-      <c r="H100" t="s">
-        <v>536</v>
-      </c>
-      <c r="I100">
+        <v>430</v>
+      </c>
+      <c r="J100">
         <v>1</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="K100" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>431</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" t="s">
-        <v>276</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
         <v>212</v>
       </c>
-      <c r="F101" t="s">
-        <v>430</v>
-      </c>
-      <c r="I101">
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>431</v>
+      </c>
+      <c r="J102">
         <v>1</v>
       </c>
-      <c r="J101" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102">
-        <v>2610</v>
-      </c>
-      <c r="F102" t="s">
-        <v>430</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="B103" t="s">
         <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>2620</v>
+      </c>
+      <c r="G103" t="s">
         <v>431</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="K103" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>596</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>608</v>
       </c>
       <c r="C104" t="s">
         <v>212</v>
       </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
       <c r="F104" t="s">
-        <v>431</v>
-      </c>
-      <c r="I104">
+        <v>608</v>
+      </c>
+      <c r="G104" t="s">
+        <v>650</v>
+      </c>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105">
         <v>1</v>
       </c>
-      <c r="J104" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>595</v>
-      </c>
-      <c r="B105" t="s">
-        <v>277</v>
-      </c>
-      <c r="C105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105">
-        <v>2620</v>
-      </c>
-      <c r="F105" t="s">
-        <v>431</v>
-      </c>
-      <c r="I105">
+      <c r="G105" t="s">
+        <v>432</v>
+      </c>
+      <c r="J105">
         <v>1</v>
       </c>
-      <c r="J105" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
         <v>212</v>
       </c>
-      <c r="E106" t="s">
-        <v>608</v>
-      </c>
-      <c r="F106" t="s">
-        <v>650</v>
-      </c>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>2630</v>
+      </c>
+      <c r="G106" t="s">
+        <v>432</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>432</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="G107" t="s">
+        <v>632</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s">
         <v>212</v>
       </c>
       <c r="D108">
-        <v>2630</v>
-      </c>
-      <c r="F108" t="s">
-        <v>432</v>
-      </c>
-      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>433</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>3020</v>
+      </c>
+      <c r="G109" t="s">
+        <v>433</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110">
         <v>1</v>
       </c>
-      <c r="J108" s="5" t="s">
+      <c r="G110" t="s">
+        <v>434</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" t="s">
-        <v>279</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" t="s">
         <v>212</v>
       </c>
-      <c r="E109" t="s">
-        <v>548</v>
-      </c>
-      <c r="F109" t="s">
-        <v>632</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" t="s">
-        <v>280</v>
-      </c>
-      <c r="C110" t="s">
-        <v>212</v>
-      </c>
-      <c r="F110" t="s">
-        <v>433</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>77</v>
-      </c>
-      <c r="B111" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" t="s">
-        <v>217</v>
-      </c>
       <c r="D111">
-        <v>3020</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>433</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G111" t="s">
+        <v>651</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s">
         <v>214</v>
       </c>
-      <c r="F112" t="s">
-        <v>434</v>
-      </c>
-      <c r="I112">
+      <c r="D112">
         <v>1</v>
       </c>
-      <c r="J112" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>435</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C113" t="s">
         <v>212</v>
       </c>
-      <c r="E113" t="s">
-        <v>281</v>
+      <c r="D113">
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>651</v>
-      </c>
-      <c r="I113">
+        <v>282</v>
+      </c>
+      <c r="G113" t="s">
+        <v>652</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>436</v>
+      </c>
+      <c r="J114">
         <v>1</v>
       </c>
-      <c r="J113" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" t="s">
-        <v>282</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="K114" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>3070</v>
+      </c>
+      <c r="G115" t="s">
+        <v>436</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" t="s">
         <v>214</v>
       </c>
-      <c r="F114" t="s">
-        <v>435</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>81</v>
-      </c>
-      <c r="B115" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E115" t="s">
-        <v>282</v>
-      </c>
-      <c r="F115" t="s">
-        <v>652</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116" t="s">
-        <v>212</v>
-      </c>
-      <c r="F116" t="s">
-        <v>436</v>
-      </c>
-      <c r="I116">
+      <c r="D116">
         <v>1</v>
       </c>
-      <c r="J116" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>83</v>
-      </c>
-      <c r="B117" t="s">
-        <v>283</v>
+      <c r="G116" t="s">
+        <v>437</v>
+      </c>
+      <c r="I116" t="s">
+        <v>437</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>616</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D117">
-        <v>3070</v>
-      </c>
-      <c r="F117" t="s">
-        <v>436</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>3100</v>
+      </c>
+      <c r="G117" t="s">
+        <v>437</v>
+      </c>
+      <c r="H117" t="s">
+        <v>517</v>
+      </c>
+      <c r="I117" t="s">
+        <v>437</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C118" t="s">
         <v>214</v>
       </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
       <c r="F118" t="s">
-        <v>437</v>
-      </c>
-      <c r="H118" t="s">
-        <v>437</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>616</v>
+        <v>285</v>
+      </c>
+      <c r="G118" t="s">
+        <v>655</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="s">
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D119">
-        <v>3100</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="G119" t="s">
-        <v>517</v>
-      </c>
-      <c r="H119" t="s">
-        <v>437</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
         <v>214</v>
       </c>
-      <c r="E120" t="s">
-        <v>285</v>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>655</v>
-      </c>
-      <c r="I120">
+        <v>287</v>
+      </c>
+      <c r="G120" t="s">
+        <v>656</v>
+      </c>
+      <c r="J120">
         <v>1</v>
       </c>
-      <c r="J120" s="5" t="s">
+      <c r="K120" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
-      </c>
-      <c r="E121" t="s">
-        <v>550</v>
-      </c>
-      <c r="F121" t="s">
-        <v>655</v>
-      </c>
-      <c r="I121">
+        <v>214</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
-      <c r="J121" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>438</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
-      </c>
-      <c r="E122" t="s">
-        <v>287</v>
-      </c>
-      <c r="F122" t="s">
-        <v>656</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>3200</v>
+      </c>
+      <c r="G122" t="s">
+        <v>438</v>
+      </c>
+      <c r="H122" t="s">
+        <v>521</v>
+      </c>
+      <c r="I122" t="s">
+        <v>522</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C123" t="s">
         <v>214</v>
       </c>
-      <c r="F123" t="s">
-        <v>438</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>439</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D124">
-        <v>3200</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="G124" t="s">
-        <v>521</v>
-      </c>
-      <c r="H124" t="s">
-        <v>522</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>625</v>
+      </c>
+      <c r="H125" t="s">
+        <v>493</v>
+      </c>
+      <c r="I125" t="s">
+        <v>525</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" t="s">
         <v>214</v>
       </c>
-      <c r="F125" t="s">
-        <v>439</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" s="5" t="s">
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>440</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>91</v>
-      </c>
-      <c r="B126" t="s">
-        <v>289</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
         <v>212</v>
       </c>
-      <c r="E126" t="s">
-        <v>289</v>
-      </c>
-      <c r="F126" t="s">
-        <v>657</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" s="5" t="s">
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>292</v>
+      </c>
+      <c r="G127" t="s">
+        <v>659</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" t="s">
-        <v>291</v>
-      </c>
-      <c r="F127" t="s">
-        <v>625</v>
-      </c>
-      <c r="G127" t="s">
-        <v>493</v>
-      </c>
-      <c r="H127" t="s">
-        <v>525</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
         <v>214</v>
       </c>
-      <c r="F128" t="s">
-        <v>440</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>441</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C129" t="s">
         <v>212</v>
       </c>
-      <c r="E129" t="s">
-        <v>292</v>
+      <c r="D129">
+        <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>659</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G129" t="s">
+        <v>660</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C130" t="s">
         <v>214</v>
       </c>
-      <c r="F130" t="s">
-        <v>441</v>
-      </c>
-      <c r="I130">
+      <c r="D130">
         <v>1</v>
       </c>
-      <c r="J130" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>3210</v>
+      </c>
+      <c r="G130" t="s">
+        <v>442</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>597</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>
       </c>
-      <c r="E131" t="s">
-        <v>293</v>
-      </c>
-      <c r="F131" t="s">
-        <v>660</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>598</v>
       </c>
       <c r="B132" t="s">
         <v>294</v>
       </c>
       <c r="C132" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133">
+        <v>3220</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>393</v>
+      </c>
+      <c r="G133" t="s">
+        <v>661</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" t="s">
         <v>214</v>
       </c>
-      <c r="D132">
-        <v>3210</v>
-      </c>
-      <c r="F132" t="s">
-        <v>442</v>
-      </c>
-      <c r="I132">
+      <c r="D134">
         <v>1</v>
       </c>
-      <c r="J132" s="5" t="s">
+      <c r="E134">
+        <v>3220</v>
+      </c>
+      <c r="G134" t="s">
+        <v>443</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>597</v>
-      </c>
-      <c r="B133" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" t="s">
-        <v>212</v>
-      </c>
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>598</v>
-      </c>
-      <c r="B134" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" t="s">
-        <v>217</v>
-      </c>
-      <c r="J134"/>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B135">
-        <v>3220</v>
+        <v>3230</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" t="s">
-        <v>393</v>
+        <v>305</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>661</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G135" t="s">
+        <v>664</v>
+      </c>
+      <c r="H135" t="s">
+        <v>500</v>
+      </c>
+      <c r="I135" t="s">
+        <v>514</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
         <v>214</v>
       </c>
       <c r="D136">
-        <v>3220</v>
-      </c>
-      <c r="F136" t="s">
-        <v>443</v>
-      </c>
-      <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>444</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>110</v>
-      </c>
-      <c r="B137">
-        <v>3230</v>
+        <v>101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>297</v>
       </c>
       <c r="C137" t="s">
-        <v>305</v>
-      </c>
-      <c r="E137" t="s">
-        <v>303</v>
+        <v>247</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>664</v>
+        <v>297</v>
       </c>
       <c r="G137" t="s">
+        <v>679</v>
+      </c>
+      <c r="H137" t="s">
         <v>500</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>514</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C138" t="s">
         <v>214</v>
       </c>
-      <c r="F138" t="s">
-        <v>444</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>445</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C139" t="s">
         <v>247</v>
       </c>
-      <c r="E139" t="s">
-        <v>297</v>
+      <c r="D139">
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>679</v>
+        <v>298</v>
       </c>
       <c r="G139" t="s">
-        <v>500</v>
+        <v>658</v>
       </c>
       <c r="H139" t="s">
-        <v>514</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="I139" t="s">
+        <v>538</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
         <v>214</v>
       </c>
-      <c r="F140" t="s">
-        <v>445</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>446</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
-      </c>
-      <c r="E141" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>658</v>
+        <v>299</v>
       </c>
       <c r="G141" t="s">
-        <v>497</v>
+        <v>680</v>
       </c>
       <c r="H141" t="s">
-        <v>538</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I141" t="s">
+        <v>514</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B142" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C142" t="s">
         <v>214</v>
       </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
       <c r="F142" t="s">
-        <v>446</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G142" t="s">
+        <v>663</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" t="s">
-        <v>299</v>
-      </c>
-      <c r="F143" t="s">
-        <v>680</v>
+        <v>214</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>500</v>
-      </c>
-      <c r="H143" t="s">
-        <v>514</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
         <v>214</v>
       </c>
-      <c r="E144" t="s">
-        <v>302</v>
+      <c r="D144">
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>663</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G144" t="s">
+        <v>664</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C145" t="s">
         <v>214</v>
       </c>
-      <c r="F145" t="s">
-        <v>447</v>
-      </c>
-      <c r="I145">
+      <c r="D145">
         <v>1</v>
       </c>
-      <c r="J145" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>3230</v>
+      </c>
+      <c r="G145" t="s">
+        <v>448</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C146" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>3240</v>
+      </c>
+      <c r="G146" t="s">
+        <v>449</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" t="s">
+        <v>212</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>307</v>
+      </c>
+      <c r="G147" t="s">
+        <v>665</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" t="s">
         <v>214</v>
       </c>
-      <c r="E146" t="s">
-        <v>303</v>
-      </c>
-      <c r="F146" t="s">
-        <v>664</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>109</v>
-      </c>
-      <c r="B147" t="s">
-        <v>304</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>551</v>
+      </c>
+      <c r="G148" t="s">
+        <v>666</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" t="s">
+        <v>308</v>
+      </c>
+      <c r="C149" t="s">
         <v>214</v>
       </c>
-      <c r="D147">
-        <v>3230</v>
-      </c>
-      <c r="F147" t="s">
-        <v>448</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>111</v>
-      </c>
-      <c r="B148" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148" t="s">
-        <v>212</v>
-      </c>
-      <c r="D148">
-        <v>3240</v>
-      </c>
-      <c r="F148" t="s">
-        <v>449</v>
-      </c>
-      <c r="I148">
+      <c r="D149">
         <v>1</v>
       </c>
-      <c r="J148" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>112</v>
-      </c>
-      <c r="B149" t="s">
-        <v>307</v>
-      </c>
-      <c r="C149" t="s">
-        <v>212</v>
-      </c>
-      <c r="E149" t="s">
-        <v>307</v>
-      </c>
       <c r="F149" t="s">
-        <v>665</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G149" t="s">
+        <v>667</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
         <v>214</v>
       </c>
-      <c r="E150" t="s">
-        <v>551</v>
+      <c r="D150">
+        <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>666</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="G150" t="s">
+        <v>668</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
         <v>214</v>
       </c>
-      <c r="E151" t="s">
-        <v>588</v>
+      <c r="D151">
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>667</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="G151" t="s">
+        <v>669</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
         <v>214</v>
       </c>
-      <c r="E152" t="s">
-        <v>552</v>
+      <c r="D152">
+        <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>668</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G152" t="s">
+        <v>670</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
-      </c>
-      <c r="C153" t="s">
-        <v>214</v>
-      </c>
-      <c r="E153" t="s">
-        <v>589</v>
+        <v>116</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>669</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="G153" t="s">
+        <v>671</v>
+      </c>
+      <c r="H153" t="s">
+        <v>499</v>
+      </c>
+      <c r="I153" t="s">
+        <v>523</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
-      </c>
-      <c r="C154" t="s">
-        <v>214</v>
-      </c>
-      <c r="E154" t="s">
-        <v>553</v>
+        <v>116</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>670</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="G154" t="s">
+        <v>666</v>
+      </c>
+      <c r="H154" t="s">
+        <v>499</v>
+      </c>
+      <c r="I154" t="s">
+        <v>523</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>116</v>
       </c>
       <c r="B155" t="s">
         <v>116</v>
       </c>
-      <c r="E155" t="s">
-        <v>590</v>
+      <c r="D155">
+        <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>671</v>
+        <v>591</v>
       </c>
       <c r="G155" t="s">
+        <v>672</v>
+      </c>
+      <c r="H155" t="s">
         <v>499</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>523</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>1</v>
       </c>
-      <c r="J155" s="5" t="s">
+      <c r="K155" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>116</v>
       </c>
       <c r="B156" t="s">
         <v>116</v>
       </c>
-      <c r="E156" t="s">
-        <v>551</v>
+      <c r="D156">
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="G156" t="s">
+        <v>673</v>
+      </c>
+      <c r="H156" t="s">
         <v>499</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>523</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>1</v>
       </c>
-      <c r="J156" s="5" t="s">
+      <c r="K156" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>116</v>
-      </c>
-      <c r="E157" t="s">
-        <v>591</v>
-      </c>
-      <c r="F157" t="s">
-        <v>672</v>
+        <v>311</v>
+      </c>
+      <c r="C157" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>499</v>
-      </c>
-      <c r="H157" t="s">
-        <v>523</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>599</v>
       </c>
       <c r="B158" t="s">
-        <v>116</v>
-      </c>
-      <c r="E158" t="s">
-        <v>592</v>
-      </c>
-      <c r="F158" t="s">
-        <v>673</v>
-      </c>
-      <c r="G158" t="s">
-        <v>499</v>
-      </c>
-      <c r="H158" t="s">
-        <v>523</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>600</v>
       </c>
       <c r="B159" t="s">
         <v>311</v>
       </c>
       <c r="C159" t="s">
+        <v>247</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>3300</v>
+      </c>
+      <c r="G159" t="s">
+        <v>515</v>
+      </c>
+      <c r="H159" t="s">
+        <v>492</v>
+      </c>
+      <c r="I159" t="s">
+        <v>515</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>118</v>
+      </c>
+      <c r="B160" t="s">
+        <v>312</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>312</v>
+      </c>
+      <c r="G160" t="s">
+        <v>674</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>313</v>
+      </c>
+      <c r="G161" t="s">
+        <v>675</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>121</v>
+      </c>
+      <c r="B162" t="s">
+        <v>316</v>
+      </c>
+      <c r="C162" t="s">
         <v>214</v>
       </c>
-      <c r="F159" t="s">
-        <v>450</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159" s="5" t="s">
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>451</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>599</v>
-      </c>
-      <c r="B160" t="s">
-        <v>311</v>
-      </c>
-      <c r="C160" t="s">
-        <v>247</v>
-      </c>
-      <c r="J160"/>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>600</v>
-      </c>
-      <c r="B161" t="s">
-        <v>311</v>
-      </c>
-      <c r="C161" t="s">
-        <v>247</v>
-      </c>
-      <c r="D161">
-        <v>3300</v>
-      </c>
-      <c r="F161" t="s">
-        <v>515</v>
-      </c>
-      <c r="G161" t="s">
-        <v>492</v>
-      </c>
-      <c r="H161" t="s">
-        <v>515</v>
-      </c>
-      <c r="J161" s="5" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>315</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>451</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" t="s">
-        <v>312</v>
-      </c>
-      <c r="C162" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>120</v>
+      </c>
+      <c r="B164" t="s">
+        <v>314</v>
+      </c>
+      <c r="C164" t="s">
+        <v>315</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>3302</v>
+      </c>
+      <c r="G164" t="s">
+        <v>451</v>
+      </c>
+      <c r="J164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" t="s">
+        <v>317</v>
+      </c>
+      <c r="C165" t="s">
         <v>212</v>
       </c>
-      <c r="E162" t="s">
-        <v>312</v>
-      </c>
-      <c r="F162" t="s">
-        <v>674</v>
-      </c>
-      <c r="I162">
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>317</v>
+      </c>
+      <c r="G165" t="s">
+        <v>676</v>
+      </c>
+      <c r="J165">
         <v>1</v>
       </c>
-      <c r="J162" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" t="s">
-        <v>313</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="K165" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" t="s">
+        <v>318</v>
+      </c>
+      <c r="C166" t="s">
         <v>212</v>
       </c>
-      <c r="E163" t="s">
-        <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>675</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>121</v>
-      </c>
-      <c r="B164" t="s">
-        <v>316</v>
-      </c>
-      <c r="C164" t="s">
-        <v>214</v>
-      </c>
-      <c r="F164" t="s">
-        <v>451</v>
-      </c>
-      <c r="I164">
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>3311</v>
+      </c>
+      <c r="G166" t="s">
+        <v>452</v>
+      </c>
+      <c r="J166">
         <v>1</v>
       </c>
-      <c r="J164" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>122</v>
-      </c>
-      <c r="B165" t="s">
-        <v>316</v>
-      </c>
-      <c r="C165" t="s">
-        <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>451</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>120</v>
-      </c>
-      <c r="B166" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" t="s">
-        <v>315</v>
-      </c>
-      <c r="D166">
-        <v>3302</v>
-      </c>
-      <c r="F166" t="s">
-        <v>451</v>
-      </c>
-      <c r="I166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J166" s="5" t="s">
+      <c r="K166" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B167" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C167" t="s">
         <v>212</v>
       </c>
-      <c r="E167" t="s">
-        <v>317</v>
+      <c r="D167">
+        <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>676</v>
-      </c>
-      <c r="I167">
+        <v>555</v>
+      </c>
+      <c r="G167" t="s">
+        <v>677</v>
+      </c>
+      <c r="J167">
         <v>1</v>
       </c>
-      <c r="J167" s="5" t="s">
+      <c r="K167" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
         <v>212</v>
       </c>
       <c r="D168">
-        <v>3311</v>
-      </c>
-      <c r="F168" t="s">
-        <v>452</v>
-      </c>
-      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>3350</v>
+      </c>
+      <c r="G168" t="s">
+        <v>453</v>
+      </c>
+      <c r="J168">
         <v>1</v>
       </c>
-      <c r="J168" s="5" t="s">
+      <c r="K168" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C169" t="s">
         <v>212</v>
       </c>
-      <c r="E169" t="s">
-        <v>555</v>
+      <c r="D169">
+        <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>677</v>
-      </c>
-      <c r="I169">
+        <v>321</v>
+      </c>
+      <c r="G169" t="s">
+        <v>678</v>
+      </c>
+      <c r="J169">
         <v>1</v>
       </c>
-      <c r="J169" s="5" t="s">
+      <c r="K169" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C170" t="s">
         <v>212</v>
       </c>
       <c r="D170">
-        <v>3350</v>
+        <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>453</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G170" t="s">
+        <v>682</v>
+      </c>
+      <c r="H170" t="s">
+        <v>496</v>
+      </c>
+      <c r="I170" t="s">
+        <v>516</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C171" t="s">
         <v>212</v>
       </c>
-      <c r="E171" t="s">
-        <v>321</v>
-      </c>
-      <c r="F171" t="s">
-        <v>678</v>
-      </c>
-      <c r="I171">
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>454</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>540</v>
+      </c>
+      <c r="C172" t="s">
+        <v>539</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>323</v>
+      </c>
+      <c r="G172" t="s">
+        <v>662</v>
+      </c>
+      <c r="H172" t="s">
+        <v>498</v>
+      </c>
+      <c r="I172" t="s">
+        <v>512</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>615</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>323</v>
+      </c>
+      <c r="G173" t="s">
+        <v>662</v>
+      </c>
+      <c r="I173" t="s">
+        <v>512</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>130</v>
+      </c>
+      <c r="B174" t="s">
+        <v>324</v>
+      </c>
+      <c r="C174" t="s">
+        <v>214</v>
+      </c>
+      <c r="D174">
         <v>1</v>
       </c>
-      <c r="J171" s="5" t="s">
+      <c r="F174" t="s">
+        <v>324</v>
+      </c>
+      <c r="G174" t="s">
+        <v>683</v>
+      </c>
+      <c r="H174" t="s">
+        <v>496</v>
+      </c>
+      <c r="I174" t="s">
+        <v>516</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>128</v>
-      </c>
-      <c r="B172" t="s">
-        <v>322</v>
-      </c>
-      <c r="C172" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>131</v>
+      </c>
+      <c r="B175" t="s">
+        <v>325</v>
+      </c>
+      <c r="C175" t="s">
+        <v>214</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>325</v>
+      </c>
+      <c r="G175" t="s">
+        <v>696</v>
+      </c>
+      <c r="H175" t="s">
+        <v>496</v>
+      </c>
+      <c r="I175" t="s">
+        <v>516</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>132</v>
+      </c>
+      <c r="B176" t="s">
+        <v>326</v>
+      </c>
+      <c r="C176" t="s">
         <v>212</v>
       </c>
-      <c r="E172" t="s">
-        <v>322</v>
-      </c>
-      <c r="F172" t="s">
-        <v>682</v>
-      </c>
-      <c r="G172" t="s">
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>326</v>
+      </c>
+      <c r="G176" t="s">
+        <v>701</v>
+      </c>
+      <c r="H176" t="s">
         <v>496</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I176" t="s">
         <v>516</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" s="5" t="s">
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" t="s">
+        <v>327</v>
+      </c>
+      <c r="C177" t="s">
+        <v>212</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>327</v>
+      </c>
+      <c r="G177" t="s">
+        <v>681</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>134</v>
+      </c>
+      <c r="B178" t="s">
+        <v>328</v>
+      </c>
+      <c r="C178" t="s">
+        <v>214</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>455</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>129</v>
-      </c>
-      <c r="B173" t="s">
-        <v>323</v>
-      </c>
-      <c r="C173" t="s">
-        <v>212</v>
-      </c>
-      <c r="F173" t="s">
-        <v>454</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>540</v>
-      </c>
-      <c r="C174" t="s">
-        <v>539</v>
-      </c>
-      <c r="E174" t="s">
-        <v>323</v>
-      </c>
-      <c r="F174" t="s">
-        <v>662</v>
-      </c>
-      <c r="G174" t="s">
-        <v>498</v>
-      </c>
-      <c r="H174" t="s">
-        <v>512</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>615</v>
-      </c>
-      <c r="E175" t="s">
-        <v>323</v>
-      </c>
-      <c r="F175" t="s">
-        <v>662</v>
-      </c>
-      <c r="H175" t="s">
-        <v>512</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>130</v>
-      </c>
-      <c r="B176" t="s">
-        <v>324</v>
-      </c>
-      <c r="C176" t="s">
-        <v>214</v>
-      </c>
-      <c r="E176" t="s">
-        <v>324</v>
-      </c>
-      <c r="F176" t="s">
-        <v>683</v>
-      </c>
-      <c r="G176" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" t="s">
+        <v>328</v>
+      </c>
+      <c r="C179" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>328</v>
+      </c>
+      <c r="G179" t="s">
+        <v>708</v>
+      </c>
+      <c r="H179" t="s">
         <v>496</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I179" t="s">
         <v>516</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>131</v>
-      </c>
-      <c r="B177" t="s">
-        <v>325</v>
-      </c>
-      <c r="C177" t="s">
-        <v>214</v>
-      </c>
-      <c r="E177" t="s">
-        <v>325</v>
-      </c>
-      <c r="F177" t="s">
-        <v>696</v>
-      </c>
-      <c r="G177" t="s">
-        <v>496</v>
-      </c>
-      <c r="H177" t="s">
-        <v>516</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>132</v>
-      </c>
-      <c r="B178" t="s">
-        <v>326</v>
-      </c>
-      <c r="C178" t="s">
-        <v>212</v>
-      </c>
-      <c r="E178" t="s">
-        <v>326</v>
-      </c>
-      <c r="F178" t="s">
-        <v>701</v>
-      </c>
-      <c r="G178" t="s">
-        <v>496</v>
-      </c>
-      <c r="H178" t="s">
-        <v>516</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>133</v>
-      </c>
-      <c r="B179" t="s">
-        <v>327</v>
-      </c>
-      <c r="C179" t="s">
-        <v>212</v>
-      </c>
-      <c r="E179" t="s">
-        <v>327</v>
-      </c>
-      <c r="F179" t="s">
-        <v>681</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-      <c r="J179" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C180" t="s">
         <v>214</v>
       </c>
-      <c r="F180" t="s">
-        <v>455</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180" s="5" t="s">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>456</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s">
         <v>243</v>
       </c>
-      <c r="E181" t="s">
-        <v>328</v>
+      <c r="D181">
+        <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>708</v>
+        <v>329</v>
       </c>
       <c r="G181" t="s">
+        <v>709</v>
+      </c>
+      <c r="H181" t="s">
         <v>496</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>516</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>456</v>
-      </c>
-      <c r="I182">
+        <v>330</v>
+      </c>
+      <c r="G182" t="s">
+        <v>684</v>
+      </c>
+      <c r="J182">
         <v>1</v>
       </c>
-      <c r="J182" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K182" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B183" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C183" t="s">
-        <v>243</v>
-      </c>
-      <c r="E183" t="s">
-        <v>329</v>
-      </c>
-      <c r="F183" t="s">
-        <v>709</v>
+        <v>212</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>496</v>
-      </c>
-      <c r="H183" t="s">
-        <v>516</v>
-      </c>
-      <c r="I183">
+        <v>457</v>
+      </c>
+      <c r="J183">
         <v>1</v>
       </c>
-      <c r="J183" s="5" t="s">
+      <c r="K183" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
-      </c>
-      <c r="E184" t="s">
-        <v>330</v>
+        <v>217</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>684</v>
-      </c>
-      <c r="I184">
+        <v>331</v>
+      </c>
+      <c r="G184" t="s">
+        <v>685</v>
+      </c>
+      <c r="J184">
         <v>1</v>
       </c>
-      <c r="J184" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K184" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B185" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C185" t="s">
         <v>212</v>
       </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
       <c r="F185" t="s">
-        <v>457</v>
-      </c>
-      <c r="I185">
+        <v>332</v>
+      </c>
+      <c r="G185" t="s">
+        <v>686</v>
+      </c>
+      <c r="J185">
         <v>1</v>
       </c>
-      <c r="J185" s="5" t="s">
+      <c r="K185" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>217</v>
-      </c>
-      <c r="E186" t="s">
-        <v>331</v>
+        <v>212</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>685</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="G186" t="s">
+        <v>687</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B187" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C187" t="s">
         <v>212</v>
       </c>
-      <c r="E187" t="s">
-        <v>332</v>
+      <c r="D187">
+        <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>686</v>
-      </c>
-      <c r="I187">
+        <v>334</v>
+      </c>
+      <c r="G187" t="s">
+        <v>688</v>
+      </c>
+      <c r="J187">
         <v>1</v>
       </c>
-      <c r="J187" s="5" t="s">
+      <c r="K187" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B188" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C188" t="s">
         <v>212</v>
       </c>
-      <c r="E188" t="s">
-        <v>333</v>
+      <c r="D188">
+        <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>687</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G188" t="s">
+        <v>689</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C189" t="s">
         <v>212</v>
       </c>
-      <c r="E189" t="s">
-        <v>334</v>
+      <c r="D189">
+        <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>688</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G189" t="s">
+        <v>690</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C190" t="s">
         <v>212</v>
       </c>
-      <c r="E190" t="s">
-        <v>335</v>
+      <c r="D190">
+        <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>689</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G190" t="s">
+        <v>691</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C191" t="s">
         <v>212</v>
       </c>
-      <c r="E191" t="s">
-        <v>336</v>
+      <c r="D191">
+        <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>690</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="G191" t="s">
+        <v>692</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C192" t="s">
         <v>212</v>
       </c>
-      <c r="E192" t="s">
-        <v>337</v>
+      <c r="D192">
+        <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>691</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="G192" t="s">
+        <v>693</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C193" t="s">
         <v>212</v>
       </c>
-      <c r="E193" t="s">
-        <v>338</v>
+      <c r="D193">
+        <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>692</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="G193" t="s">
+        <v>694</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B194" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C194" t="s">
         <v>212</v>
       </c>
-      <c r="E194" t="s">
-        <v>556</v>
+      <c r="D194">
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>693</v>
-      </c>
-      <c r="I194">
+        <v>341</v>
+      </c>
+      <c r="G194" t="s">
+        <v>695</v>
+      </c>
+      <c r="J194">
         <v>1</v>
       </c>
-      <c r="J194" s="5" t="s">
+      <c r="K194" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>149</v>
-      </c>
-      <c r="B195" t="s">
-        <v>340</v>
+        <v>156</v>
+      </c>
+      <c r="B195">
+        <v>4000</v>
       </c>
       <c r="C195" t="s">
+        <v>345</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>4000</v>
+      </c>
+      <c r="G195" t="s">
+        <v>459</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>151</v>
+      </c>
+      <c r="B196" t="s">
+        <v>342</v>
+      </c>
+      <c r="C196" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>152</v>
+      </c>
+      <c r="B197" t="s">
+        <v>342</v>
+      </c>
+      <c r="C197" t="s">
+        <v>217</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>153</v>
+      </c>
+      <c r="B198" t="s">
+        <v>343</v>
+      </c>
+      <c r="C198" t="s">
+        <v>218</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>4000</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H198" t="s">
+        <v>494</v>
+      </c>
+      <c r="I198" t="s">
+        <v>532</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" t="s">
+        <v>344</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>458</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>155</v>
+      </c>
+      <c r="B200" t="s">
+        <v>344</v>
+      </c>
+      <c r="C200" t="s">
         <v>212</v>
       </c>
-      <c r="E195" t="s">
-        <v>340</v>
-      </c>
-      <c r="F195" t="s">
-        <v>694</v>
-      </c>
-      <c r="I195">
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>344</v>
+      </c>
+      <c r="G200" t="s">
+        <v>697</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>157</v>
+      </c>
+      <c r="B201" t="s">
+        <v>346</v>
+      </c>
+      <c r="C201" t="s">
+        <v>212</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>4100</v>
+      </c>
+      <c r="G201" t="s">
+        <v>460</v>
+      </c>
+      <c r="J201">
         <v>1</v>
       </c>
-      <c r="J195" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>150</v>
-      </c>
-      <c r="B196" t="s">
-        <v>341</v>
-      </c>
-      <c r="C196" t="s">
-        <v>212</v>
-      </c>
-      <c r="E196" t="s">
-        <v>341</v>
-      </c>
-      <c r="F196" t="s">
-        <v>695</v>
-      </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
-      <c r="J196" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>156</v>
-      </c>
-      <c r="B197">
-        <v>4000</v>
-      </c>
-      <c r="C197" t="s">
-        <v>345</v>
-      </c>
-      <c r="D197">
-        <v>4000</v>
-      </c>
-      <c r="F197" t="s">
-        <v>459</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-      <c r="J197" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>151</v>
-      </c>
-      <c r="B198" t="s">
-        <v>342</v>
-      </c>
-      <c r="C198" t="s">
-        <v>214</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-      <c r="J198" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>152</v>
-      </c>
-      <c r="B199" t="s">
-        <v>342</v>
-      </c>
-      <c r="C199" t="s">
-        <v>217</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>153</v>
-      </c>
-      <c r="B200" t="s">
-        <v>343</v>
-      </c>
-      <c r="C200" t="s">
-        <v>218</v>
-      </c>
-      <c r="D200">
-        <v>4000</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="G200" t="s">
-        <v>494</v>
-      </c>
-      <c r="H200" t="s">
-        <v>532</v>
-      </c>
-      <c r="I200">
-        <v>1</v>
-      </c>
-      <c r="J200" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>154</v>
-      </c>
-      <c r="B201" t="s">
-        <v>344</v>
-      </c>
-      <c r="C201" t="s">
-        <v>214</v>
-      </c>
-      <c r="F201" t="s">
-        <v>458</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K201" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C202" t="s">
         <v>212</v>
       </c>
-      <c r="E202" t="s">
-        <v>344</v>
-      </c>
-      <c r="F202" t="s">
-        <v>697</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="G202" t="s">
+        <v>461</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D203">
-        <v>4100</v>
-      </c>
-      <c r="F203" t="s">
-        <v>460</v>
-      </c>
-      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="E203">
+        <v>4110</v>
+      </c>
+      <c r="G203" t="s">
+        <v>461</v>
+      </c>
+      <c r="J203">
         <v>1</v>
       </c>
-      <c r="J203" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K203" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C204" t="s">
         <v>212</v>
       </c>
-      <c r="F204" t="s">
-        <v>461</v>
-      </c>
-      <c r="I204">
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>4130</v>
+      </c>
+      <c r="G204" t="s">
+        <v>462</v>
+      </c>
+      <c r="J204">
         <v>1</v>
       </c>
-      <c r="J204" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K204" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B205" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C205" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D205">
-        <v>4110</v>
-      </c>
-      <c r="F205" t="s">
-        <v>461</v>
-      </c>
-      <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>4140</v>
+      </c>
+      <c r="G205" t="s">
+        <v>463</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C206" t="s">
         <v>212</v>
       </c>
       <c r="D206">
-        <v>4130</v>
+        <v>2</v>
       </c>
       <c r="F206" t="s">
-        <v>462</v>
-      </c>
-      <c r="I206">
+        <v>557</v>
+      </c>
+      <c r="G206" t="s">
+        <v>698</v>
+      </c>
+      <c r="J206">
         <v>1</v>
       </c>
-      <c r="J206" s="5" t="s">
+      <c r="K206" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B207" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C207" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D207">
-        <v>4140</v>
+        <v>2</v>
       </c>
       <c r="F207" t="s">
-        <v>463</v>
-      </c>
-      <c r="I207">
+        <v>351</v>
+      </c>
+      <c r="G207" t="s">
+        <v>699</v>
+      </c>
+      <c r="J207">
         <v>1</v>
       </c>
-      <c r="J207" s="5" t="s">
+      <c r="K207" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B208" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C208" t="s">
         <v>212</v>
       </c>
-      <c r="E208" t="s">
-        <v>557</v>
-      </c>
-      <c r="F208" t="s">
-        <v>698</v>
-      </c>
-      <c r="I208">
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>4200</v>
+      </c>
+      <c r="G208" t="s">
+        <v>464</v>
+      </c>
+      <c r="J208">
         <v>1</v>
       </c>
-      <c r="J208" s="5" t="s">
+      <c r="K208" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B209" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C209" t="s">
-        <v>212</v>
-      </c>
-      <c r="E209" t="s">
-        <v>351</v>
+        <v>214</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>699</v>
-      </c>
-      <c r="I209">
+        <v>355</v>
+      </c>
+      <c r="G209" t="s">
+        <v>700</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>165</v>
+      </c>
+      <c r="B210" t="s">
+        <v>353</v>
+      </c>
+      <c r="C210" t="s">
+        <v>214</v>
+      </c>
+      <c r="D210">
         <v>1</v>
       </c>
-      <c r="J209" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>164</v>
-      </c>
-      <c r="B210" t="s">
-        <v>352</v>
-      </c>
-      <c r="C210" t="s">
-        <v>212</v>
-      </c>
-      <c r="D210">
-        <v>4200</v>
-      </c>
-      <c r="F210" t="s">
-        <v>464</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
-      <c r="J210" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B211" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
-      </c>
-      <c r="E211" t="s">
-        <v>355</v>
-      </c>
-      <c r="F211" t="s">
-        <v>700</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>630</v>
+      </c>
+      <c r="H211" t="s">
+        <v>495</v>
+      </c>
+      <c r="I211" t="s">
+        <v>513</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B212" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C212" t="s">
         <v>214</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" s="5" t="s">
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>465</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C213" t="s">
-        <v>354</v>
+        <v>212</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>630</v>
+        <v>356</v>
       </c>
       <c r="G213" t="s">
-        <v>495</v>
-      </c>
-      <c r="H213" t="s">
-        <v>513</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B214" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C214" t="s">
         <v>214</v>
       </c>
-      <c r="F214" t="s">
-        <v>465</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214" s="5" t="s">
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>466</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B215" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C215" t="s">
         <v>212</v>
       </c>
-      <c r="E215" t="s">
-        <v>356</v>
+      <c r="D215">
+        <v>2</v>
       </c>
       <c r="F215" t="s">
-        <v>702</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G215" t="s">
+        <v>703</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C216" t="s">
         <v>214</v>
       </c>
-      <c r="F216" t="s">
-        <v>466</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="J216" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>467</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B217" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C217" t="s">
         <v>212</v>
       </c>
-      <c r="E217" t="s">
-        <v>357</v>
+      <c r="D217">
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>703</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="G217" t="s">
+        <v>704</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C218" t="s">
         <v>214</v>
       </c>
-      <c r="F218" t="s">
-        <v>467</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>468</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B219" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C219" t="s">
         <v>212</v>
       </c>
-      <c r="E219" t="s">
-        <v>358</v>
+      <c r="D219">
+        <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>704</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G219" t="s">
+        <v>705</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>176</v>
+      </c>
+      <c r="B220" t="s">
+        <v>360</v>
+      </c>
+      <c r="C220" t="s">
+        <v>212</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>4230</v>
+      </c>
+      <c r="G220" t="s">
+        <v>469</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>177</v>
+      </c>
+      <c r="B221" t="s">
+        <v>361</v>
+      </c>
+      <c r="C221" t="s">
+        <v>214</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>4240</v>
+      </c>
+      <c r="G221" t="s">
+        <v>470</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>174</v>
-      </c>
-      <c r="B220" t="s">
-        <v>359</v>
-      </c>
-      <c r="C220" t="s">
-        <v>214</v>
-      </c>
-      <c r="F220" t="s">
-        <v>468</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>175</v>
-      </c>
-      <c r="B221" t="s">
-        <v>359</v>
-      </c>
-      <c r="C221" t="s">
-        <v>212</v>
-      </c>
-      <c r="E221" t="s">
-        <v>359</v>
-      </c>
-      <c r="F221" t="s">
-        <v>705</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B222" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C222" t="s">
         <v>212</v>
       </c>
       <c r="D222">
-        <v>4230</v>
-      </c>
-      <c r="F222" t="s">
-        <v>469</v>
-      </c>
-      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>4250</v>
+      </c>
+      <c r="G222" t="s">
+        <v>471</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>179</v>
+      </c>
+      <c r="B223" t="s">
+        <v>363</v>
+      </c>
+      <c r="C223" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="G223" t="s">
+        <v>472</v>
+      </c>
+      <c r="J223">
         <v>1</v>
       </c>
-      <c r="J222" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>177</v>
-      </c>
-      <c r="B223" t="s">
-        <v>361</v>
-      </c>
-      <c r="C223" t="s">
-        <v>214</v>
-      </c>
-      <c r="D223">
-        <v>4240</v>
-      </c>
-      <c r="F223" t="s">
-        <v>470</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K223" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B224" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C224" t="s">
         <v>212</v>
       </c>
       <c r="D224">
-        <v>4250</v>
-      </c>
-      <c r="F224" t="s">
-        <v>471</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>6110</v>
+      </c>
+      <c r="G224" t="s">
+        <v>472</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C225" t="s">
         <v>212</v>
       </c>
-      <c r="F225" t="s">
-        <v>472</v>
-      </c>
-      <c r="I225">
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>6400</v>
+      </c>
+      <c r="G225" t="s">
+        <v>473</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>182</v>
+      </c>
+      <c r="B226" t="s">
+        <v>366</v>
+      </c>
+      <c r="C226" t="s">
+        <v>367</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="J226">
         <v>1</v>
       </c>
-      <c r="J225" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>180</v>
-      </c>
-      <c r="B226" t="s">
-        <v>364</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="K226" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>601</v>
+      </c>
+      <c r="B227" t="s">
+        <v>366</v>
+      </c>
+      <c r="C227" t="s">
+        <v>217</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>6430</v>
+      </c>
+      <c r="G227" t="s">
+        <v>412</v>
+      </c>
+      <c r="K227"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>183</v>
+      </c>
+      <c r="B228" t="s">
+        <v>368</v>
+      </c>
+      <c r="C228" t="s">
+        <v>214</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>474</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" t="s">
+        <v>369</v>
+      </c>
+      <c r="C229" t="s">
         <v>212</v>
       </c>
-      <c r="D226">
-        <v>6110</v>
-      </c>
-      <c r="F226" t="s">
-        <v>472</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>181</v>
-      </c>
-      <c r="B227" t="s">
-        <v>365</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>6440</v>
+      </c>
+      <c r="G229" t="s">
+        <v>475</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" t="s">
+        <v>370</v>
+      </c>
+      <c r="C230" t="s">
         <v>212</v>
       </c>
-      <c r="D227">
-        <v>6400</v>
-      </c>
-      <c r="F227" t="s">
-        <v>473</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>182</v>
-      </c>
-      <c r="B228" t="s">
-        <v>366</v>
-      </c>
-      <c r="C228" t="s">
-        <v>367</v>
-      </c>
-      <c r="I228">
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>476</v>
+      </c>
+      <c r="J230">
         <v>1</v>
       </c>
-      <c r="J228" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>601</v>
-      </c>
-      <c r="B229" t="s">
-        <v>366</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="K230" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>186</v>
+      </c>
+      <c r="B231" t="s">
+        <v>370</v>
+      </c>
+      <c r="C231" t="s">
         <v>217</v>
       </c>
-      <c r="D229">
-        <v>6430</v>
-      </c>
-      <c r="F229" t="s">
-        <v>412</v>
-      </c>
-      <c r="J229"/>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>183</v>
-      </c>
-      <c r="B230" t="s">
-        <v>368</v>
-      </c>
-      <c r="C230" t="s">
-        <v>214</v>
-      </c>
-      <c r="F230" t="s">
-        <v>474</v>
-      </c>
-      <c r="I230">
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231">
+        <v>6450</v>
+      </c>
+      <c r="G231" t="s">
+        <v>476</v>
+      </c>
+      <c r="J231">
         <v>1</v>
       </c>
-      <c r="J230" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>184</v>
-      </c>
-      <c r="B231" t="s">
-        <v>369</v>
-      </c>
-      <c r="C231" t="s">
-        <v>212</v>
-      </c>
-      <c r="D231">
-        <v>6440</v>
-      </c>
-      <c r="F231" t="s">
-        <v>475</v>
-      </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
-      <c r="J231" s="5" t="s">
+      <c r="K231" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C232" t="s">
         <v>212</v>
       </c>
-      <c r="F232" t="s">
-        <v>476</v>
-      </c>
-      <c r="I232">
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="G232" t="s">
+        <v>477</v>
+      </c>
+      <c r="J232">
         <v>1</v>
       </c>
-      <c r="J232" s="5" t="s">
+      <c r="K232" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B233" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C233" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="D233">
-        <v>6450</v>
-      </c>
-      <c r="F233" t="s">
-        <v>476</v>
-      </c>
-      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>6480</v>
+      </c>
+      <c r="G233" t="s">
+        <v>477</v>
+      </c>
+      <c r="J233">
         <v>1</v>
       </c>
-      <c r="J233" s="5" t="s">
+      <c r="K233" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>188</v>
-      </c>
-      <c r="B234" t="s">
-        <v>371</v>
+        <v>189</v>
+      </c>
+      <c r="B234">
+        <v>6530</v>
       </c>
       <c r="C234" t="s">
+        <v>214</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
+        <v>478</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>190</v>
+      </c>
+      <c r="B235">
+        <v>6530</v>
+      </c>
+      <c r="C235" t="s">
         <v>212</v>
       </c>
-      <c r="F234" t="s">
-        <v>477</v>
-      </c>
-      <c r="I234">
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="G235" t="s">
+        <v>478</v>
+      </c>
+      <c r="J235">
         <v>1</v>
       </c>
-      <c r="J234" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>187</v>
-      </c>
-      <c r="B235" t="s">
-        <v>371</v>
-      </c>
-      <c r="C235" t="s">
-        <v>372</v>
-      </c>
-      <c r="D235">
-        <v>6480</v>
-      </c>
-      <c r="F235" t="s">
-        <v>477</v>
-      </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
-      <c r="J235" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K235" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B236">
         <v>6530</v>
       </c>
       <c r="C236" t="s">
-        <v>214</v>
-      </c>
-      <c r="F236" t="s">
+        <v>217</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>6530</v>
+      </c>
+      <c r="G236" t="s">
         <v>478</v>
       </c>
-      <c r="I236">
+      <c r="J236">
         <v>1</v>
       </c>
-      <c r="J236" s="5" t="s">
+      <c r="K236" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>190</v>
-      </c>
-      <c r="B237">
-        <v>6530</v>
+        <v>192</v>
+      </c>
+      <c r="B237" t="s">
+        <v>373</v>
       </c>
       <c r="C237" t="s">
         <v>212</v>
       </c>
-      <c r="F237" t="s">
-        <v>478</v>
-      </c>
-      <c r="I237">
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>479</v>
+      </c>
+      <c r="J237">
         <v>1</v>
       </c>
-      <c r="J237" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K237" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>191</v>
-      </c>
-      <c r="B238">
-        <v>6530</v>
+        <v>193</v>
+      </c>
+      <c r="B238" t="s">
+        <v>373</v>
       </c>
       <c r="C238" t="s">
         <v>217</v>
       </c>
       <c r="D238">
-        <v>6530</v>
-      </c>
-      <c r="F238" t="s">
-        <v>478</v>
-      </c>
-      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>6540</v>
+      </c>
+      <c r="G238" t="s">
+        <v>479</v>
+      </c>
+      <c r="J238">
         <v>1</v>
       </c>
-      <c r="J238" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K238" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>192</v>
+        <v>602</v>
       </c>
       <c r="B239" t="s">
         <v>373</v>
       </c>
       <c r="C239" t="s">
-        <v>212</v>
-      </c>
-      <c r="F239" t="s">
-        <v>479</v>
-      </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D239">
+        <v>4</v>
+      </c>
+      <c r="K239"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>193</v>
+        <v>603</v>
       </c>
       <c r="B240" t="s">
         <v>373</v>
       </c>
       <c r="C240" t="s">
+        <v>609</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>6540</v>
+      </c>
+      <c r="K240"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>194</v>
+      </c>
+      <c r="B241" t="s">
+        <v>374</v>
+      </c>
+      <c r="C241" t="s">
+        <v>214</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>6550</v>
+      </c>
+      <c r="G241" t="s">
+        <v>480</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>195</v>
+      </c>
+      <c r="B242" t="s">
+        <v>375</v>
+      </c>
+      <c r="C242" t="s">
+        <v>214</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>375</v>
+      </c>
+      <c r="G242" t="s">
+        <v>706</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>198</v>
+      </c>
+      <c r="B243" t="s">
+        <v>377</v>
+      </c>
+      <c r="C243" t="s">
         <v>217</v>
       </c>
-      <c r="D240">
-        <v>6540</v>
-      </c>
-      <c r="F240" t="s">
-        <v>479</v>
-      </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
-      <c r="J240" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>602</v>
-      </c>
-      <c r="B241" t="s">
-        <v>373</v>
-      </c>
-      <c r="C241" t="s">
-        <v>218</v>
-      </c>
-      <c r="J241"/>
-    </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>603</v>
-      </c>
-      <c r="B242" t="s">
-        <v>373</v>
-      </c>
-      <c r="C242" t="s">
-        <v>609</v>
-      </c>
-      <c r="D242">
-        <v>6540</v>
-      </c>
-      <c r="J242"/>
-    </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>194</v>
-      </c>
-      <c r="B243" t="s">
-        <v>374</v>
-      </c>
-      <c r="C243" t="s">
-        <v>214</v>
-      </c>
       <c r="D243">
-        <v>6550</v>
-      </c>
-      <c r="F243" t="s">
-        <v>480</v>
-      </c>
-      <c r="I243">
-        <v>1</v>
-      </c>
-      <c r="J243" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>195</v>
+        <v>3</v>
+      </c>
+      <c r="E243">
+        <v>7060</v>
+      </c>
+      <c r="G243" t="s">
+        <v>482</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="B244" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
-      </c>
-      <c r="E244" t="s">
-        <v>375</v>
-      </c>
-      <c r="F244" t="s">
-        <v>706</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-      <c r="J244" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="G244" t="s">
+        <v>481</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="B245" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C245" t="s">
         <v>217</v>
       </c>
       <c r="D245">
-        <v>7060</v>
+        <v>3</v>
       </c>
       <c r="F245" t="s">
+        <v>376</v>
+      </c>
+      <c r="G245" t="s">
         <v>482</v>
       </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245" s="5" t="s">
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B246" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C246" t="s">
         <v>212</v>
       </c>
-      <c r="F246" t="s">
-        <v>481</v>
-      </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-      <c r="J246" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>8020</v>
+      </c>
+      <c r="G246" t="s">
+        <v>483</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C247" t="s">
-        <v>217</v>
-      </c>
-      <c r="E247" t="s">
-        <v>376</v>
+        <v>214</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
-      </c>
-      <c r="I247">
-        <v>0</v>
-      </c>
-      <c r="J247" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="G247" t="s">
+        <v>707</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B248" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C248" t="s">
         <v>212</v>
       </c>
       <c r="D248">
-        <v>8020</v>
-      </c>
-      <c r="F248" t="s">
-        <v>483</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>8030</v>
+      </c>
+      <c r="G248" t="s">
+        <v>484</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B249" t="s">
+        <v>381</v>
+      </c>
+      <c r="C249" t="s">
+        <v>212</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>8040</v>
+      </c>
+      <c r="G249" t="s">
+        <v>485</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B249" t="s">
-        <v>379</v>
-      </c>
-      <c r="C249" t="s">
-        <v>214</v>
-      </c>
-      <c r="E249" t="s">
-        <v>379</v>
-      </c>
-      <c r="F249" t="s">
-        <v>707</v>
-      </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-      <c r="J249" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B250" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C250" t="s">
         <v>212</v>
       </c>
       <c r="D250">
-        <v>8030</v>
-      </c>
-      <c r="F250" t="s">
-        <v>484</v>
-      </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="J250" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>8050</v>
+      </c>
+      <c r="G250" t="s">
+        <v>486</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B251" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C251" t="s">
         <v>212</v>
       </c>
       <c r="D251">
-        <v>8040</v>
-      </c>
-      <c r="F251" t="s">
-        <v>485</v>
-      </c>
-      <c r="I251">
-        <v>0</v>
-      </c>
-      <c r="J251" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>8060</v>
+      </c>
+      <c r="G251" t="s">
+        <v>487</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B252" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C252" t="s">
         <v>212</v>
       </c>
       <c r="D252">
-        <v>8050</v>
-      </c>
-      <c r="F252" t="s">
-        <v>486</v>
-      </c>
-      <c r="I252">
-        <v>1</v>
-      </c>
-      <c r="J252" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>488</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B253" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C253" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D253">
-        <v>8060</v>
-      </c>
-      <c r="F253" t="s">
-        <v>487</v>
-      </c>
-      <c r="I253">
-        <v>0</v>
-      </c>
-      <c r="J253" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253">
+        <v>8070</v>
+      </c>
+      <c r="G253" t="s">
+        <v>488</v>
+      </c>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B254" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C254" t="s">
         <v>212</v>
       </c>
-      <c r="F254" t="s">
-        <v>488</v>
-      </c>
-      <c r="I254">
-        <v>0</v>
-      </c>
-      <c r="J254" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>8080</v>
+      </c>
+      <c r="G254" t="s">
+        <v>489</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B255" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C255" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D255">
-        <v>8070</v>
-      </c>
-      <c r="F255" t="s">
-        <v>488</v>
-      </c>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="J255" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>8090</v>
+      </c>
+      <c r="G255" t="s">
+        <v>490</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
-        <v>207</v>
+        <v>604</v>
       </c>
       <c r="B256" t="s">
-        <v>385</v>
+        <v>610</v>
       </c>
       <c r="C256" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D256">
-        <v>8080</v>
-      </c>
-      <c r="F256" t="s">
-        <v>489</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="J256" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>612</v>
+      </c>
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B257" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C257" t="s">
         <v>212</v>
       </c>
       <c r="D257">
-        <v>8090</v>
-      </c>
-      <c r="F257" t="s">
-        <v>490</v>
-      </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>450</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B258" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C258" t="s">
         <v>214</v>
       </c>
-      <c r="D258" t="s">
-        <v>612</v>
-      </c>
-      <c r="J258"/>
-    </row>
-    <row r="259" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>613</v>
+      </c>
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B259" t="s">
-        <v>392</v>
-      </c>
-      <c r="C259" t="s">
-        <v>212</v>
-      </c>
-      <c r="F259" t="s">
-        <v>450</v>
-      </c>
-      <c r="I259">
-        <v>0</v>
-      </c>
-      <c r="J259" t="s">
+        <v>593</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="B260" t="s">
-        <v>611</v>
-      </c>
-      <c r="C260" t="s">
-        <v>214</v>
-      </c>
-      <c r="D260" t="s">
-        <v>613</v>
-      </c>
-      <c r="J260"/>
-    </row>
-    <row r="261" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="J261" t="s">
-        <v>508</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J261" xr:uid="{62C74BDA-1CA2-41DA-BD18-2F619CC5F0C8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2400-EAG-1_F001.xlsx"/>
-        <filter val="2400-EAG-1_F002 speelversie.xlsx"/>
-        <filter val="2400-EAG-1_F002 speelversie.xlsx"/>
-        <filter val="2400-EAG-1_F003 laatste versie.xlsx"/>
-        <filter val="2400-EAG-1_PRH_tm2017.xlsx"/>
-        <filter val="2400-EAG-2_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-2_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-2_F003 laatste versie.xlsx"/>
-        <filter val="2400-EAG-3_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-3_F001 laatste versie.xlsx"/>
-        <filter val="2400-EAG-3_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-3_F001.xlsx"/>
-        <filter val="2400-EAG-4_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-4_F001 laatste versie.xlsx"/>
-        <filter val="2400-EAG-4_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-4_F001.xlsx"/>
-        <filter val="2400-EAG-5_F002_Reservaat.xlsx"/>
-        <filter val="2400-EAG-6_F002.xlsx"/>
-        <filter val="2400-EAG-6_F002_Benning.xlsx"/>
-        <filter val="2400-EAG-6_F004_Benning.xlsx"/>
-        <filter val="2400-GAF_F001.xlsx"/>
-        <filter val="2400-GAF_F002.xlsx"/>
-        <filter val="2400-GAF_F003 laatste versie.xlsx"/>
-        <filter val="2400-PRH-Benning.xlsx"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J261">
-      <sortCondition ref="A1:A261"/>
+  <autoFilter ref="A1:K259" xr:uid="{62C74BDA-1CA2-41DA-BD18-2F619CC5F0C8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K259">
+      <sortCondition ref="A1:A259"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23331,88 +24070,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
-    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
-    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
-      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
-    </_dlc_DocIdUrl>
-    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8fe95572a7a7878b61abe4cdcaa95a61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b624776c1a3c75443e1a1b758f5efa1" ns2:_="" ns3:_="">
     <xsd:import namespace="d59e9867-4acc-40d5-91da-91f4047d1695"/>
@@ -23712,45 +24369,94 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
+    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
+    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
+    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
+      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
+    </_dlc_DocIdUrl>
+    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
-    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743CA991-A91A-4ABA-A663-E5C279512219}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23769,6 +24475,39 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
+    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
   <ds:schemaRefs>

--- a/pbelasting/input/190324_koppeltabel.xlsx
+++ b/pbelasting/input/190324_koppeltabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1729.N.19 AGV data analyse\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58999CAB-F88D-4209-BBA9-A2E93A41E1A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04607584-810B-4709-922C-F4DEFD3FBEC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1163">
   <si>
     <t>2010-GAF_F002.xlsx</t>
   </si>
@@ -3519,6 +3519,12 @@
   </si>
   <si>
     <t>versie2</t>
+  </si>
+  <si>
+    <t>6530-GAF</t>
+  </si>
+  <si>
+    <t>vader</t>
   </si>
 </sst>
 </file>
@@ -5622,7 +5628,7 @@
   <dimension ref="A1:K259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,6 +6298,9 @@
       <c r="A26" s="17" t="s">
         <v>1103</v>
       </c>
+      <c r="B26" t="s">
+        <v>560</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -6623,6 +6632,9 @@
       <c r="A40" t="s">
         <v>621</v>
       </c>
+      <c r="B40" t="s">
+        <v>242</v>
+      </c>
       <c r="D40">
         <v>0</v>
       </c>
@@ -6631,6 +6643,9 @@
       <c r="A41" s="17" t="s">
         <v>1081</v>
       </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
       <c r="D41">
         <v>0</v>
       </c>
@@ -6668,6 +6683,9 @@
       <c r="A43" t="s">
         <v>33</v>
       </c>
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
       <c r="C43" t="s">
         <v>243</v>
       </c>
@@ -6679,6 +6697,9 @@
       <c r="A44" t="s">
         <v>622</v>
       </c>
+      <c r="B44" t="s">
+        <v>624</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -6687,6 +6708,9 @@
       <c r="A45" s="17" t="s">
         <v>1074</v>
       </c>
+      <c r="B45" t="s">
+        <v>624</v>
+      </c>
       <c r="D45">
         <v>0</v>
       </c>
@@ -6724,6 +6748,9 @@
       <c r="A47" t="s">
         <v>619</v>
       </c>
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
       <c r="D47">
         <v>0</v>
       </c>
@@ -6732,6 +6759,9 @@
       <c r="A48" s="17" t="s">
         <v>1070</v>
       </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
       <c r="D48">
         <v>1</v>
       </c>
@@ -6769,6 +6799,9 @@
       <c r="A50" t="s">
         <v>34</v>
       </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
       <c r="C50" t="s">
         <v>214</v>
       </c>
@@ -6789,6 +6822,9 @@
       <c r="A51" t="s">
         <v>620</v>
       </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
       <c r="D51">
         <v>0</v>
       </c>
@@ -6829,6 +6865,9 @@
       <c r="A53" s="17" t="s">
         <v>1063</v>
       </c>
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
       <c r="D53">
         <v>0</v>
       </c>
@@ -6837,6 +6876,9 @@
       <c r="A54" t="s">
         <v>35</v>
       </c>
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
       <c r="D54">
         <v>0</v>
       </c>
@@ -6845,6 +6887,9 @@
       <c r="A55" t="s">
         <v>618</v>
       </c>
+      <c r="B55" t="s">
+        <v>623</v>
+      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -6871,6 +6916,9 @@
       <c r="A56" s="17" t="s">
         <v>1058</v>
       </c>
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
       <c r="D56">
         <v>1</v>
       </c>
@@ -6879,6 +6927,9 @@
       <c r="A57" t="s">
         <v>36</v>
       </c>
+      <c r="B57" t="s">
+        <v>246</v>
+      </c>
       <c r="D57">
         <v>0</v>
       </c>
@@ -6942,6 +6993,9 @@
       <c r="A60" t="s">
         <v>37</v>
       </c>
+      <c r="B60" t="s">
+        <v>248</v>
+      </c>
       <c r="D60">
         <v>1</v>
       </c>
@@ -6959,6 +7013,9 @@
       <c r="A61" t="s">
         <v>38</v>
       </c>
+      <c r="B61" t="s">
+        <v>248</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
@@ -7002,6 +7059,9 @@
       <c r="A63" s="17" t="s">
         <v>1044</v>
       </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
       <c r="D63">
         <v>0</v>
       </c>
@@ -7236,6 +7296,9 @@
       <c r="A72" t="s">
         <v>45</v>
       </c>
+      <c r="B72" t="s">
+        <v>254</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -7302,8 +7365,8 @@
       <c r="A75" t="s">
         <v>50</v>
       </c>
-      <c r="B75">
-        <v>2501</v>
+      <c r="B75" t="s">
+        <v>256</v>
       </c>
       <c r="C75" t="s">
         <v>258</v>
@@ -7331,8 +7394,8 @@
       <c r="A76" t="s">
         <v>49</v>
       </c>
-      <c r="B76">
-        <v>2501</v>
+      <c r="B76" t="s">
+        <v>256</v>
       </c>
       <c r="C76" t="s">
         <v>258</v>
@@ -7733,6 +7796,9 @@
       <c r="A91" t="s">
         <v>614</v>
       </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
       <c r="D91">
         <v>0</v>
       </c>
@@ -8369,6 +8435,9 @@
       <c r="A117" s="12" t="s">
         <v>616</v>
       </c>
+      <c r="B117" t="s">
+        <v>284</v>
+      </c>
       <c r="C117" t="s">
         <v>247</v>
       </c>
@@ -8763,8 +8832,8 @@
       <c r="A133" t="s">
         <v>99</v>
       </c>
-      <c r="B133">
-        <v>3220</v>
+      <c r="B133" t="s">
+        <v>393</v>
       </c>
       <c r="C133" t="s">
         <v>296</v>
@@ -8815,8 +8884,8 @@
       <c r="A135" t="s">
         <v>110</v>
       </c>
-      <c r="B135">
-        <v>3230</v>
+      <c r="B135" t="s">
+        <v>303</v>
       </c>
       <c r="C135" t="s">
         <v>305</v>
@@ -9787,6 +9856,9 @@
       <c r="A172" t="s">
         <v>540</v>
       </c>
+      <c r="B172" t="s">
+        <v>323</v>
+      </c>
       <c r="C172" t="s">
         <v>539</v>
       </c>
@@ -9816,6 +9888,9 @@
       <c r="A173" t="s">
         <v>615</v>
       </c>
+      <c r="B173" t="s">
+        <v>323</v>
+      </c>
       <c r="D173">
         <v>0</v>
       </c>
@@ -10406,8 +10481,8 @@
       <c r="A195" t="s">
         <v>156</v>
       </c>
-      <c r="B195">
-        <v>4000</v>
+      <c r="B195" t="s">
+        <v>342</v>
       </c>
       <c r="C195" t="s">
         <v>345</v>
@@ -11370,8 +11445,8 @@
       <c r="A234" t="s">
         <v>189</v>
       </c>
-      <c r="B234">
-        <v>6530</v>
+      <c r="B234" t="s">
+        <v>1161</v>
       </c>
       <c r="C234" t="s">
         <v>214</v>
@@ -11393,8 +11468,8 @@
       <c r="A235" t="s">
         <v>190</v>
       </c>
-      <c r="B235">
-        <v>6530</v>
+      <c r="B235" t="s">
+        <v>1161</v>
       </c>
       <c r="C235" t="s">
         <v>212</v>
@@ -11416,8 +11491,8 @@
       <c r="A236" t="s">
         <v>191</v>
       </c>
-      <c r="B236">
-        <v>6530</v>
+      <c r="B236" t="s">
+        <v>1161</v>
       </c>
       <c r="C236" t="s">
         <v>217</v>
@@ -11968,6 +12043,9 @@
     <row r="259" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="13" t="s">
         <v>593</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1162</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -24070,6 +24148,88 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
+    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
+    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
+    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
+      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
+    </_dlc_DocIdUrl>
+    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8fe95572a7a7878b61abe4cdcaa95a61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b624776c1a3c75443e1a1b758f5efa1" ns2:_="" ns3:_="">
     <xsd:import namespace="d59e9867-4acc-40d5-91da-91f4047d1695"/>
@@ -24369,94 +24529,45 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
-    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
-    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
-      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
-    </_dlc_DocIdUrl>
-    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
+    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743CA991-A91A-4ABA-A663-E5C279512219}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24475,39 +24586,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
-    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
   <ds:schemaRefs>

--- a/pbelasting/input/190324_koppeltabel.xlsx
+++ b/pbelasting/input/190324_koppeltabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://waternet.sharepoint.com/sites/0182/Intern/Stand van zake waterkwaliteit/R/pbelasting/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1729.N.19 AGV data analyse\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="6_{88775F5B-9153-49A4-BAA6-16670AFEB874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87AF6C00-5190-4B2B-85D5-62F4996194AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04607584-810B-4709-922C-F4DEFD3FBEC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namenBalansen201903240706" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$L$2:$N$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$J$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">namenBalansen201903240706!$A$1:$K$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="1163">
   <si>
     <t>2010-GAF_F002.xlsx</t>
   </si>
@@ -3518,6 +3516,15 @@
   </si>
   <si>
     <t>pol</t>
+  </si>
+  <si>
+    <t>versie2</t>
+  </si>
+  <si>
+    <t>6530-GAF</t>
+  </si>
+  <si>
+    <t>vader</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4205,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Moria, laura" refreshedDate="43559.629596180559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="218" xr:uid="{D0558155-9A6D-4100-B3E1-24E053C9B007}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="G1:H1048576" sheet="namenBalansen201903240706"/>
+    <worksheetSource ref="H1:I1048576" sheet="namenBalansen201903240706"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="KRW" numFmtId="0">
@@ -5144,7 +5151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{203483FC-69E1-4340-97D8-8046B43E1A5E}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5618,24 +5625,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>558</v>
       </c>
@@ -5646,28 +5652,31 @@
         <v>387</v>
       </c>
       <c r="D1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1" t="s">
         <v>388</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>389</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>395</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>390</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>394</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>391</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5678,19 +5687,22 @@
         <v>212</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>2010</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>396</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5700,17 +5712,20 @@
       <c r="C3" t="s">
         <v>214</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>397</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5721,19 +5736,22 @@
         <v>212</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2100</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>397</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5744,25 +5762,28 @@
         <v>212</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>2110</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>398</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>503</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>534</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5772,17 +5793,20 @@
       <c r="C6" t="s">
         <v>212</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>399</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5792,17 +5816,20 @@
       <c r="C7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>399</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5813,25 +5840,28 @@
         <v>218</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>2120</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>399</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>503</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>534</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5841,20 +5871,23 @@
       <c r="C9" t="s">
         <v>214</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>219</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>634</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5864,17 +5897,20 @@
       <c r="C10" t="s">
         <v>214</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>400</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5885,25 +5921,28 @@
         <v>221</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>2130</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>400</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>503</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>534</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5913,20 +5952,23 @@
       <c r="C12" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>223</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>635</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5936,20 +5978,23 @@
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>224</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>636</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5959,17 +6004,20 @@
       <c r="C14" t="s">
         <v>214</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>401</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5980,19 +6028,22 @@
         <v>212</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>2140</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>401</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6003,19 +6054,22 @@
         <v>214</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2150</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>402</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6025,17 +6079,20 @@
       <c r="C17" t="s">
         <v>212</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>403</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6046,19 +6103,22 @@
         <v>217</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>2210</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>403</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1113</v>
       </c>
@@ -6068,11 +6128,14 @@
       <c r="C19" t="s">
         <v>214</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1110</v>
       </c>
@@ -6082,11 +6145,14 @@
       <c r="C20" t="s">
         <v>214</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>617</v>
       </c>
@@ -6096,26 +6162,29 @@
       <c r="C21" t="s">
         <v>212</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>587</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>510</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>509</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>510</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -6126,19 +6195,22 @@
         <v>212</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>2220</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>404</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6149,19 +6221,22 @@
         <v>212</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>2230</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>405</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -6172,19 +6247,22 @@
         <v>212</v>
       </c>
       <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>2240</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>406</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>559</v>
       </c>
@@ -6194,31 +6272,40 @@
       <c r="C25" t="s">
         <v>212</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>560</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>561</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>562</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>561</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>560</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -6228,20 +6315,23 @@
       <c r="C27" t="s">
         <v>212</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>231</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>638</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -6252,19 +6342,22 @@
         <v>217</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>2250</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>633</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -6275,19 +6368,22 @@
         <v>212</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>2270</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>407</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -6297,17 +6393,20 @@
       <c r="C30" t="s">
         <v>214</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>408</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -6317,17 +6416,20 @@
       <c r="C31" t="s">
         <v>214</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>408</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -6338,19 +6440,22 @@
         <v>212</v>
       </c>
       <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>2290</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>409</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6361,19 +6466,22 @@
         <v>212</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>2300</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>410</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -6384,19 +6492,22 @@
         <v>212</v>
       </c>
       <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>2310</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>411</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -6406,17 +6517,20 @@
       <c r="C35" t="s">
         <v>212</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
         <v>412</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -6426,17 +6540,20 @@
       <c r="C36" t="s">
         <v>212</v>
       </c>
-      <c r="F36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
         <v>412</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -6447,19 +6564,22 @@
         <v>217</v>
       </c>
       <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
         <v>2330</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>412</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -6470,19 +6590,22 @@
         <v>212</v>
       </c>
       <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>2340</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>413</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -6492,155 +6615,221 @@
       <c r="C39" t="s">
         <v>214</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>414</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>1077</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
         <v>242</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>637</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>504</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>530</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
       <c r="C43" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>1072</v>
       </c>
       <c r="B46" t="s">
         <v>624</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
         <v>624</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>641</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>504</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>530</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="K46" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>1068</v>
       </c>
       <c r="B49" t="s">
         <v>244</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>244</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>639</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>504</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>530</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
       <c r="C50" t="s">
         <v>214</v>
       </c>
-      <c r="F50" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>415</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="K50" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>1065</v>
       </c>
@@ -6650,234 +6839,354 @@
       <c r="C52" t="s">
         <v>214</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>245</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>640</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>504</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>530</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="K52" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>618</v>
       </c>
-      <c r="E55" t="s">
+      <c r="B55" t="s">
         <v>623</v>
       </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
       <c r="F55" t="s">
+        <v>623</v>
+      </c>
+      <c r="G55" t="s">
         <v>710</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>504</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>530</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>1</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58">
+      <c r="B57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>1</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>1055</v>
       </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" t="s">
+        <v>712</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" t="s">
-        <v>246</v>
-      </c>
-      <c r="F59" t="s">
-        <v>712</v>
-      </c>
-      <c r="I59">
+        <v>214</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="G59" t="s">
+        <v>416</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60" t="s">
         <v>248</v>
       </c>
-      <c r="C60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>416</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="K60" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
         <v>416</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="K61" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>2400</v>
+      </c>
+      <c r="G62" t="s">
         <v>416</v>
       </c>
-      <c r="I63">
+      <c r="J62">
         <v>1</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="K62" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>1047</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s">
         <v>212</v>
       </c>
       <c r="D64">
-        <v>2400</v>
-      </c>
-      <c r="F64" t="s">
-        <v>416</v>
-      </c>
-      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2410</v>
+      </c>
+      <c r="G64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="K64" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" t="s">
+        <v>711</v>
+      </c>
+      <c r="H65" t="s">
+        <v>501</v>
+      </c>
+      <c r="I65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D66">
-        <v>2410</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
-      </c>
-      <c r="I66">
+        <v>584</v>
+      </c>
+      <c r="G66" t="s">
+        <v>649</v>
+      </c>
+      <c r="H66" t="s">
+        <v>491</v>
+      </c>
+      <c r="I66" t="s">
+        <v>537</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="J66" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C67" t="s">
-        <v>251</v>
-      </c>
-      <c r="E67" t="s">
-        <v>250</v>
-      </c>
       <c r="F67" t="s">
-        <v>711</v>
+        <v>585</v>
       </c>
       <c r="G67" t="s">
-        <v>501</v>
+        <v>653</v>
       </c>
       <c r="H67" t="s">
-        <v>526</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>491</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B68" t="s">
@@ -6886,4364 +7195,4872 @@
       <c r="C68" t="s">
         <v>214</v>
       </c>
-      <c r="E68" t="s">
-        <v>584</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>649</v>
+        <v>253</v>
       </c>
       <c r="G68" t="s">
+        <v>654</v>
+      </c>
+      <c r="H68" t="s">
         <v>491</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>537</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
         <v>214</v>
       </c>
-      <c r="E69" t="s">
-        <v>585</v>
-      </c>
-      <c r="F69" t="s">
-        <v>653</v>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>491</v>
-      </c>
-      <c r="H69" t="s">
-        <v>537</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>41</v>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
         <v>214</v>
       </c>
-      <c r="E70" t="s">
-        <v>253</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>654</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
-        <v>491</v>
-      </c>
-      <c r="H70" t="s">
-        <v>537</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="G71" t="s">
+        <v>642</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
         <v>254</v>
       </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" t="s">
-        <v>642</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>44</v>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>1018</v>
       </c>
       <c r="B73" t="s">
         <v>254</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
         <v>254</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>642</v>
       </c>
-      <c r="I73">
+      <c r="H73" t="s">
+        <v>502</v>
+      </c>
+      <c r="I73" t="s">
+        <v>527</v>
+      </c>
+      <c r="J73">
         <v>1</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>1018</v>
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2500</v>
+      </c>
+      <c r="G74" t="s">
+        <v>419</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" t="s">
-        <v>254</v>
+        <v>258</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>642</v>
+        <v>256</v>
       </c>
       <c r="G75" t="s">
-        <v>502</v>
-      </c>
-      <c r="H75" t="s">
-        <v>527</v>
-      </c>
-      <c r="I75">
+        <v>643</v>
+      </c>
+      <c r="I75" t="s">
+        <v>531</v>
+      </c>
+      <c r="J75">
         <v>1</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2501</v>
+      </c>
+      <c r="G76" t="s">
+        <v>627</v>
+      </c>
+      <c r="H76" t="s">
+        <v>505</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" t="s">
         <v>214</v>
       </c>
-      <c r="D76">
-        <v>2500</v>
-      </c>
-      <c r="F76" t="s">
-        <v>419</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77">
-        <v>2501</v>
-      </c>
-      <c r="C77" t="s">
-        <v>258</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>256</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>643</v>
       </c>
-      <c r="H77" t="s">
-        <v>531</v>
-      </c>
-      <c r="I77">
+      <c r="J77">
         <v>1</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78">
-        <v>2501</v>
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="D78">
-        <v>2501</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>627</v>
+        <v>257</v>
       </c>
       <c r="G78" t="s">
-        <v>505</v>
-      </c>
-      <c r="I78">
+        <v>644</v>
+      </c>
+      <c r="J78">
         <v>1</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="K78" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
         <v>214</v>
       </c>
-      <c r="E79" t="s">
-        <v>256</v>
-      </c>
-      <c r="F79" t="s">
-        <v>643</v>
-      </c>
-      <c r="I79">
+      <c r="D79">
         <v>1</v>
       </c>
-      <c r="J79" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>2502</v>
+      </c>
+      <c r="G79" t="s">
+        <v>420</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
         <v>214</v>
       </c>
-      <c r="E80" t="s">
-        <v>257</v>
-      </c>
-      <c r="F80" t="s">
-        <v>644</v>
-      </c>
-      <c r="I80">
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>2503</v>
+      </c>
+      <c r="G80" t="s">
+        <v>421</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D81">
-        <v>2502</v>
-      </c>
-      <c r="F81" t="s">
-        <v>420</v>
-      </c>
-      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2504</v>
+      </c>
+      <c r="G81" t="s">
+        <v>422</v>
+      </c>
+      <c r="J81">
         <v>1</v>
       </c>
-      <c r="J81" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
         <v>214</v>
       </c>
       <c r="D82">
-        <v>2503</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>421</v>
-      </c>
-      <c r="I82">
+        <v>262</v>
+      </c>
+      <c r="G82" t="s">
+        <v>645</v>
+      </c>
+      <c r="J82">
         <v>1</v>
       </c>
-      <c r="J82" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D83">
-        <v>2504</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>422</v>
-      </c>
-      <c r="I83">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>646</v>
+      </c>
+      <c r="J83">
         <v>1</v>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
         <v>214</v>
       </c>
-      <c r="E84" t="s">
-        <v>262</v>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>645</v>
-      </c>
-      <c r="I84">
+        <v>264</v>
+      </c>
+      <c r="G84" t="s">
+        <v>647</v>
+      </c>
+      <c r="J84">
         <v>1</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s">
         <v>214</v>
       </c>
-      <c r="E85" t="s">
-        <v>547</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>646</v>
-      </c>
-      <c r="I85">
+        <v>265</v>
+      </c>
+      <c r="G85" t="s">
+        <v>648</v>
+      </c>
+      <c r="J85">
         <v>1</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="K85" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" t="s">
-        <v>264</v>
-      </c>
-      <c r="F86" t="s">
-        <v>647</v>
-      </c>
-      <c r="I86">
+        <v>267</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="J86" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>2510</v>
+      </c>
+      <c r="G86" t="s">
+        <v>628</v>
+      </c>
+      <c r="H86" t="s">
+        <v>505</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
         <v>214</v>
       </c>
-      <c r="E87" t="s">
-        <v>265</v>
-      </c>
-      <c r="F87" t="s">
-        <v>648</v>
-      </c>
-      <c r="I87">
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="E87">
+        <v>2511</v>
+      </c>
+      <c r="G87" t="s">
+        <v>423</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="D88">
-        <v>2510</v>
-      </c>
-      <c r="F88" t="s">
-        <v>628</v>
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2520</v>
       </c>
       <c r="G88" t="s">
-        <v>505</v>
-      </c>
-      <c r="I88">
+        <v>424</v>
+      </c>
+      <c r="J88">
         <v>1</v>
       </c>
-      <c r="J88" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89">
-        <v>2511</v>
-      </c>
-      <c r="F89" t="s">
-        <v>423</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2530</v>
+      </c>
+      <c r="G89" t="s">
+        <v>425</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
         <v>212</v>
       </c>
       <c r="D90">
-        <v>2520</v>
-      </c>
-      <c r="F90" t="s">
-        <v>424</v>
-      </c>
-      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2540</v>
+      </c>
+      <c r="G90" t="s">
+        <v>629</v>
+      </c>
+      <c r="H90" t="s">
+        <v>528</v>
+      </c>
+      <c r="I90" t="s">
+        <v>529</v>
+      </c>
+      <c r="J90">
         <v>1</v>
       </c>
-      <c r="J90" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>614</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="D91">
-        <v>2530</v>
-      </c>
-      <c r="F91" t="s">
-        <v>425</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2400</v>
+      </c>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
         <v>212</v>
       </c>
       <c r="D92">
-        <v>2540</v>
-      </c>
-      <c r="F92" t="s">
-        <v>629</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>528</v>
-      </c>
-      <c r="H92" t="s">
-        <v>529</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>614</v>
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
       </c>
       <c r="D93">
-        <v>2400</v>
-      </c>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>2550</v>
+      </c>
+      <c r="G93" t="s">
+        <v>631</v>
+      </c>
+      <c r="H93" t="s">
+        <v>506</v>
+      </c>
+      <c r="I93" t="s">
+        <v>507</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
         <v>212</v>
       </c>
-      <c r="F94" t="s">
-        <v>426</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2560</v>
+      </c>
+      <c r="G94" t="s">
+        <v>427</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>428</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" t="s">
         <v>217</v>
       </c>
-      <c r="D95">
-        <v>2550</v>
-      </c>
-      <c r="F95" t="s">
-        <v>631</v>
-      </c>
-      <c r="G95" t="s">
-        <v>506</v>
-      </c>
-      <c r="H95" t="s">
-        <v>507</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" t="s">
-        <v>273</v>
-      </c>
-      <c r="C96" t="s">
-        <v>212</v>
-      </c>
       <c r="D96">
-        <v>2560</v>
-      </c>
-      <c r="F96" t="s">
-        <v>427</v>
-      </c>
-      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>2570</v>
+      </c>
+      <c r="G96" t="s">
+        <v>428</v>
+      </c>
+      <c r="J96">
         <v>1</v>
       </c>
-      <c r="J96" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s">
         <v>212</v>
       </c>
-      <c r="F97" t="s">
-        <v>428</v>
-      </c>
-      <c r="I97">
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>429</v>
+      </c>
+      <c r="J97">
         <v>1</v>
       </c>
-      <c r="J97" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K97" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>594</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C98" t="s">
         <v>217</v>
       </c>
       <c r="D98">
-        <v>2570</v>
-      </c>
-      <c r="F98" t="s">
-        <v>428</v>
-      </c>
-      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>2600</v>
+      </c>
+      <c r="G98" t="s">
+        <v>429</v>
+      </c>
+      <c r="H98" t="s">
+        <v>535</v>
+      </c>
+      <c r="I98" t="s">
+        <v>536</v>
+      </c>
+      <c r="J98">
         <v>1</v>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K98" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
         <v>212</v>
       </c>
-      <c r="F99" t="s">
-        <v>429</v>
-      </c>
-      <c r="I99">
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>430</v>
+      </c>
+      <c r="J99">
         <v>1</v>
       </c>
-      <c r="J99" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K99" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>594</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
         <v>217</v>
       </c>
       <c r="D100">
-        <v>2600</v>
-      </c>
-      <c r="F100" t="s">
-        <v>429</v>
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>2610</v>
       </c>
       <c r="G100" t="s">
-        <v>535</v>
-      </c>
-      <c r="H100" t="s">
-        <v>536</v>
-      </c>
-      <c r="I100">
+        <v>430</v>
+      </c>
+      <c r="J100">
         <v>1</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="K100" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>431</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" t="s">
-        <v>276</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
         <v>212</v>
       </c>
-      <c r="F101" t="s">
-        <v>430</v>
-      </c>
-      <c r="I101">
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>431</v>
+      </c>
+      <c r="J102">
         <v>1</v>
       </c>
-      <c r="J101" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102">
-        <v>2610</v>
-      </c>
-      <c r="F102" t="s">
-        <v>430</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="B103" t="s">
         <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>2620</v>
+      </c>
+      <c r="G103" t="s">
         <v>431</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="K103" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>596</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>608</v>
       </c>
       <c r="C104" t="s">
         <v>212</v>
       </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
       <c r="F104" t="s">
-        <v>431</v>
-      </c>
-      <c r="I104">
+        <v>608</v>
+      </c>
+      <c r="G104" t="s">
+        <v>650</v>
+      </c>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105">
         <v>1</v>
       </c>
-      <c r="J104" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>595</v>
-      </c>
-      <c r="B105" t="s">
-        <v>277</v>
-      </c>
-      <c r="C105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105">
-        <v>2620</v>
-      </c>
-      <c r="F105" t="s">
-        <v>431</v>
-      </c>
-      <c r="I105">
+      <c r="G105" t="s">
+        <v>432</v>
+      </c>
+      <c r="J105">
         <v>1</v>
       </c>
-      <c r="J105" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
         <v>212</v>
       </c>
-      <c r="E106" t="s">
-        <v>608</v>
-      </c>
-      <c r="F106" t="s">
-        <v>650</v>
-      </c>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>2630</v>
+      </c>
+      <c r="G106" t="s">
+        <v>432</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>432</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="G107" t="s">
+        <v>632</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s">
         <v>212</v>
       </c>
       <c r="D108">
-        <v>2630</v>
-      </c>
-      <c r="F108" t="s">
-        <v>432</v>
-      </c>
-      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>433</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>3020</v>
+      </c>
+      <c r="G109" t="s">
+        <v>433</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110">
         <v>1</v>
       </c>
-      <c r="J108" s="5" t="s">
+      <c r="G110" t="s">
+        <v>434</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" t="s">
-        <v>279</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" t="s">
+        <v>281</v>
+      </c>
+      <c r="C111" t="s">
         <v>212</v>
       </c>
-      <c r="E109" t="s">
-        <v>548</v>
-      </c>
-      <c r="F109" t="s">
-        <v>632</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" t="s">
-        <v>280</v>
-      </c>
-      <c r="C110" t="s">
-        <v>212</v>
-      </c>
-      <c r="F110" t="s">
-        <v>433</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>77</v>
-      </c>
-      <c r="B111" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" t="s">
-        <v>217</v>
-      </c>
       <c r="D111">
-        <v>3020</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>433</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G111" t="s">
+        <v>651</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s">
         <v>214</v>
       </c>
-      <c r="F112" t="s">
-        <v>434</v>
-      </c>
-      <c r="I112">
+      <c r="D112">
         <v>1</v>
       </c>
-      <c r="J112" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>435</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C113" t="s">
         <v>212</v>
       </c>
-      <c r="E113" t="s">
-        <v>281</v>
+      <c r="D113">
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>651</v>
-      </c>
-      <c r="I113">
+        <v>282</v>
+      </c>
+      <c r="G113" t="s">
+        <v>652</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>436</v>
+      </c>
+      <c r="J114">
         <v>1</v>
       </c>
-      <c r="J113" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" t="s">
-        <v>282</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="K114" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>3070</v>
+      </c>
+      <c r="G115" t="s">
+        <v>436</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" t="s">
         <v>214</v>
       </c>
-      <c r="F114" t="s">
-        <v>435</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>81</v>
-      </c>
-      <c r="B115" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E115" t="s">
-        <v>282</v>
-      </c>
-      <c r="F115" t="s">
-        <v>652</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116" t="s">
-        <v>212</v>
-      </c>
-      <c r="F116" t="s">
-        <v>436</v>
-      </c>
-      <c r="I116">
+      <c r="D116">
         <v>1</v>
       </c>
-      <c r="J116" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>83</v>
+      <c r="G116" t="s">
+        <v>437</v>
+      </c>
+      <c r="I116" t="s">
+        <v>437</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>616</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D117">
-        <v>3070</v>
-      </c>
-      <c r="F117" t="s">
-        <v>436</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>3100</v>
+      </c>
+      <c r="G117" t="s">
+        <v>437</v>
+      </c>
+      <c r="H117" t="s">
+        <v>517</v>
+      </c>
+      <c r="I117" t="s">
+        <v>437</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C118" t="s">
         <v>214</v>
       </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
       <c r="F118" t="s">
-        <v>437</v>
-      </c>
-      <c r="H118" t="s">
-        <v>437</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>616</v>
+        <v>285</v>
+      </c>
+      <c r="G118" t="s">
+        <v>655</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="s">
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D119">
-        <v>3100</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="G119" t="s">
-        <v>517</v>
-      </c>
-      <c r="H119" t="s">
-        <v>437</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
         <v>214</v>
       </c>
-      <c r="E120" t="s">
-        <v>285</v>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>655</v>
-      </c>
-      <c r="I120">
+        <v>287</v>
+      </c>
+      <c r="G120" t="s">
+        <v>656</v>
+      </c>
+      <c r="J120">
         <v>1</v>
       </c>
-      <c r="J120" s="5" t="s">
+      <c r="K120" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
-      </c>
-      <c r="E121" t="s">
-        <v>550</v>
-      </c>
-      <c r="F121" t="s">
-        <v>655</v>
-      </c>
-      <c r="I121">
+        <v>214</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
-      <c r="J121" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>438</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
-      </c>
-      <c r="E122" t="s">
-        <v>287</v>
-      </c>
-      <c r="F122" t="s">
-        <v>656</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>3200</v>
+      </c>
+      <c r="G122" t="s">
+        <v>438</v>
+      </c>
+      <c r="H122" t="s">
+        <v>521</v>
+      </c>
+      <c r="I122" t="s">
+        <v>522</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C123" t="s">
         <v>214</v>
       </c>
-      <c r="F123" t="s">
-        <v>438</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>439</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D124">
-        <v>3200</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="G124" t="s">
-        <v>521</v>
-      </c>
-      <c r="H124" t="s">
-        <v>522</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>625</v>
+      </c>
+      <c r="H125" t="s">
+        <v>493</v>
+      </c>
+      <c r="I125" t="s">
+        <v>525</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" t="s">
         <v>214</v>
       </c>
-      <c r="F125" t="s">
-        <v>439</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" s="5" t="s">
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>440</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>91</v>
-      </c>
-      <c r="B126" t="s">
-        <v>289</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
         <v>212</v>
       </c>
-      <c r="E126" t="s">
-        <v>289</v>
-      </c>
-      <c r="F126" t="s">
-        <v>657</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" s="5" t="s">
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>292</v>
+      </c>
+      <c r="G127" t="s">
+        <v>659</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" t="s">
-        <v>291</v>
-      </c>
-      <c r="F127" t="s">
-        <v>625</v>
-      </c>
-      <c r="G127" t="s">
-        <v>493</v>
-      </c>
-      <c r="H127" t="s">
-        <v>525</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
         <v>214</v>
       </c>
-      <c r="F128" t="s">
-        <v>440</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>441</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C129" t="s">
         <v>212</v>
       </c>
-      <c r="E129" t="s">
-        <v>292</v>
+      <c r="D129">
+        <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>659</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G129" t="s">
+        <v>660</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C130" t="s">
         <v>214</v>
       </c>
-      <c r="F130" t="s">
-        <v>441</v>
-      </c>
-      <c r="I130">
+      <c r="D130">
         <v>1</v>
       </c>
-      <c r="J130" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>3210</v>
+      </c>
+      <c r="G130" t="s">
+        <v>442</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>597</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C131" t="s">
         <v>212</v>
       </c>
-      <c r="E131" t="s">
-        <v>293</v>
-      </c>
-      <c r="F131" t="s">
-        <v>660</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>598</v>
       </c>
       <c r="B132" t="s">
         <v>294</v>
       </c>
       <c r="C132" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>393</v>
+      </c>
+      <c r="G133" t="s">
+        <v>661</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" t="s">
         <v>214</v>
       </c>
-      <c r="D132">
-        <v>3210</v>
-      </c>
-      <c r="F132" t="s">
-        <v>442</v>
-      </c>
-      <c r="I132">
+      <c r="D134">
         <v>1</v>
       </c>
-      <c r="J132" s="5" t="s">
+      <c r="E134">
+        <v>3220</v>
+      </c>
+      <c r="G134" t="s">
+        <v>443</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>597</v>
-      </c>
-      <c r="B133" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" t="s">
-        <v>212</v>
-      </c>
-      <c r="J133"/>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>598</v>
-      </c>
-      <c r="B134" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" t="s">
-        <v>217</v>
-      </c>
-      <c r="J134"/>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>99</v>
-      </c>
-      <c r="B135">
-        <v>3220</v>
+        <v>110</v>
+      </c>
+      <c r="B135" t="s">
+        <v>303</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" t="s">
-        <v>393</v>
+        <v>305</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>661</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G135" t="s">
+        <v>664</v>
+      </c>
+      <c r="H135" t="s">
+        <v>500</v>
+      </c>
+      <c r="I135" t="s">
+        <v>514</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
         <v>214</v>
       </c>
       <c r="D136">
-        <v>3220</v>
-      </c>
-      <c r="F136" t="s">
-        <v>443</v>
-      </c>
-      <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>444</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>110</v>
-      </c>
-      <c r="B137">
-        <v>3230</v>
+        <v>101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>297</v>
       </c>
       <c r="C137" t="s">
-        <v>305</v>
-      </c>
-      <c r="E137" t="s">
-        <v>303</v>
+        <v>247</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>664</v>
+        <v>297</v>
       </c>
       <c r="G137" t="s">
+        <v>679</v>
+      </c>
+      <c r="H137" t="s">
         <v>500</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>514</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C138" t="s">
         <v>214</v>
       </c>
-      <c r="F138" t="s">
-        <v>444</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>445</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C139" t="s">
         <v>247</v>
       </c>
-      <c r="E139" t="s">
-        <v>297</v>
+      <c r="D139">
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>679</v>
+        <v>298</v>
       </c>
       <c r="G139" t="s">
-        <v>500</v>
+        <v>658</v>
       </c>
       <c r="H139" t="s">
-        <v>514</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="I139" t="s">
+        <v>538</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
         <v>214</v>
       </c>
-      <c r="F140" t="s">
-        <v>445</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>446</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
-      </c>
-      <c r="E141" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>658</v>
+        <v>299</v>
       </c>
       <c r="G141" t="s">
-        <v>497</v>
+        <v>680</v>
       </c>
       <c r="H141" t="s">
-        <v>538</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I141" t="s">
+        <v>514</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B142" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C142" t="s">
         <v>214</v>
       </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
       <c r="F142" t="s">
-        <v>446</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G142" t="s">
+        <v>663</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" t="s">
-        <v>299</v>
-      </c>
-      <c r="F143" t="s">
-        <v>680</v>
+        <v>214</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>500</v>
-      </c>
-      <c r="H143" t="s">
-        <v>514</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
         <v>214</v>
       </c>
-      <c r="E144" t="s">
-        <v>302</v>
+      <c r="D144">
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>663</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G144" t="s">
+        <v>664</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C145" t="s">
         <v>214</v>
       </c>
-      <c r="F145" t="s">
-        <v>447</v>
-      </c>
-      <c r="I145">
+      <c r="D145">
         <v>1</v>
       </c>
-      <c r="J145" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>3230</v>
+      </c>
+      <c r="G145" t="s">
+        <v>448</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C146" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>3240</v>
+      </c>
+      <c r="G146" t="s">
+        <v>449</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" t="s">
+        <v>212</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>307</v>
+      </c>
+      <c r="G147" t="s">
+        <v>665</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" t="s">
         <v>214</v>
       </c>
-      <c r="E146" t="s">
-        <v>303</v>
-      </c>
-      <c r="F146" t="s">
-        <v>664</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>109</v>
-      </c>
-      <c r="B147" t="s">
-        <v>304</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>551</v>
+      </c>
+      <c r="G148" t="s">
+        <v>666</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" t="s">
+        <v>308</v>
+      </c>
+      <c r="C149" t="s">
         <v>214</v>
       </c>
-      <c r="D147">
-        <v>3230</v>
-      </c>
-      <c r="F147" t="s">
-        <v>448</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>111</v>
-      </c>
-      <c r="B148" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148" t="s">
-        <v>212</v>
-      </c>
-      <c r="D148">
-        <v>3240</v>
-      </c>
-      <c r="F148" t="s">
-        <v>449</v>
-      </c>
-      <c r="I148">
+      <c r="D149">
         <v>1</v>
       </c>
-      <c r="J148" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>112</v>
-      </c>
-      <c r="B149" t="s">
-        <v>307</v>
-      </c>
-      <c r="C149" t="s">
-        <v>212</v>
-      </c>
-      <c r="E149" t="s">
-        <v>307</v>
-      </c>
       <c r="F149" t="s">
-        <v>665</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G149" t="s">
+        <v>667</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C150" t="s">
         <v>214</v>
       </c>
-      <c r="E150" t="s">
-        <v>551</v>
+      <c r="D150">
+        <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>666</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="G150" t="s">
+        <v>668</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B151" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
         <v>214</v>
       </c>
-      <c r="E151" t="s">
-        <v>588</v>
+      <c r="D151">
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>667</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="G151" t="s">
+        <v>669</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
         <v>214</v>
       </c>
-      <c r="E152" t="s">
-        <v>552</v>
+      <c r="D152">
+        <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>668</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G152" t="s">
+        <v>670</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
-      </c>
-      <c r="C153" t="s">
-        <v>214</v>
-      </c>
-      <c r="E153" t="s">
-        <v>589</v>
+        <v>116</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>669</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="G153" t="s">
+        <v>671</v>
+      </c>
+      <c r="H153" t="s">
+        <v>499</v>
+      </c>
+      <c r="I153" t="s">
+        <v>523</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
-      </c>
-      <c r="C154" t="s">
-        <v>214</v>
-      </c>
-      <c r="E154" t="s">
-        <v>553</v>
+        <v>116</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>670</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="G154" t="s">
+        <v>666</v>
+      </c>
+      <c r="H154" t="s">
+        <v>499</v>
+      </c>
+      <c r="I154" t="s">
+        <v>523</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>116</v>
       </c>
       <c r="B155" t="s">
         <v>116</v>
       </c>
-      <c r="E155" t="s">
-        <v>590</v>
+      <c r="D155">
+        <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>671</v>
+        <v>591</v>
       </c>
       <c r="G155" t="s">
+        <v>672</v>
+      </c>
+      <c r="H155" t="s">
         <v>499</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>523</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>1</v>
       </c>
-      <c r="J155" s="5" t="s">
+      <c r="K155" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>116</v>
       </c>
       <c r="B156" t="s">
         <v>116</v>
       </c>
-      <c r="E156" t="s">
-        <v>551</v>
+      <c r="D156">
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="G156" t="s">
+        <v>673</v>
+      </c>
+      <c r="H156" t="s">
         <v>499</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>523</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>1</v>
       </c>
-      <c r="J156" s="5" t="s">
+      <c r="K156" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>116</v>
-      </c>
-      <c r="E157" t="s">
-        <v>591</v>
-      </c>
-      <c r="F157" t="s">
-        <v>672</v>
+        <v>311</v>
+      </c>
+      <c r="C157" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>499</v>
-      </c>
-      <c r="H157" t="s">
-        <v>523</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-      <c r="J157" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>599</v>
       </c>
       <c r="B158" t="s">
-        <v>116</v>
-      </c>
-      <c r="E158" t="s">
-        <v>592</v>
-      </c>
-      <c r="F158" t="s">
-        <v>673</v>
-      </c>
-      <c r="G158" t="s">
-        <v>499</v>
-      </c>
-      <c r="H158" t="s">
-        <v>523</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="J158" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>600</v>
       </c>
       <c r="B159" t="s">
         <v>311</v>
       </c>
       <c r="C159" t="s">
+        <v>247</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>3300</v>
+      </c>
+      <c r="G159" t="s">
+        <v>515</v>
+      </c>
+      <c r="H159" t="s">
+        <v>492</v>
+      </c>
+      <c r="I159" t="s">
+        <v>515</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>118</v>
+      </c>
+      <c r="B160" t="s">
+        <v>312</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>312</v>
+      </c>
+      <c r="G160" t="s">
+        <v>674</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>313</v>
+      </c>
+      <c r="G161" t="s">
+        <v>675</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>121</v>
+      </c>
+      <c r="B162" t="s">
+        <v>316</v>
+      </c>
+      <c r="C162" t="s">
         <v>214</v>
       </c>
-      <c r="F159" t="s">
-        <v>450</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159" s="5" t="s">
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>451</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>599</v>
-      </c>
-      <c r="B160" t="s">
-        <v>311</v>
-      </c>
-      <c r="C160" t="s">
-        <v>247</v>
-      </c>
-      <c r="J160"/>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>600</v>
-      </c>
-      <c r="B161" t="s">
-        <v>311</v>
-      </c>
-      <c r="C161" t="s">
-        <v>247</v>
-      </c>
-      <c r="D161">
-        <v>3300</v>
-      </c>
-      <c r="F161" t="s">
-        <v>515</v>
-      </c>
-      <c r="G161" t="s">
-        <v>492</v>
-      </c>
-      <c r="H161" t="s">
-        <v>515</v>
-      </c>
-      <c r="J161" s="5" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>315</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>451</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" t="s">
-        <v>312</v>
-      </c>
-      <c r="C162" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>120</v>
+      </c>
+      <c r="B164" t="s">
+        <v>314</v>
+      </c>
+      <c r="C164" t="s">
+        <v>315</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>3302</v>
+      </c>
+      <c r="G164" t="s">
+        <v>451</v>
+      </c>
+      <c r="J164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" t="s">
+        <v>317</v>
+      </c>
+      <c r="C165" t="s">
         <v>212</v>
       </c>
-      <c r="E162" t="s">
-        <v>312</v>
-      </c>
-      <c r="F162" t="s">
-        <v>674</v>
-      </c>
-      <c r="I162">
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>317</v>
+      </c>
+      <c r="G165" t="s">
+        <v>676</v>
+      </c>
+      <c r="J165">
         <v>1</v>
       </c>
-      <c r="J162" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" t="s">
-        <v>313</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="K165" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" t="s">
+        <v>318</v>
+      </c>
+      <c r="C166" t="s">
         <v>212</v>
       </c>
-      <c r="E163" t="s">
-        <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>675</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>121</v>
-      </c>
-      <c r="B164" t="s">
-        <v>316</v>
-      </c>
-      <c r="C164" t="s">
-        <v>214</v>
-      </c>
-      <c r="F164" t="s">
-        <v>451</v>
-      </c>
-      <c r="I164">
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>3311</v>
+      </c>
+      <c r="G166" t="s">
+        <v>452</v>
+      </c>
+      <c r="J166">
         <v>1</v>
       </c>
-      <c r="J164" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>122</v>
-      </c>
-      <c r="B165" t="s">
-        <v>316</v>
-      </c>
-      <c r="C165" t="s">
-        <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>451</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>120</v>
-      </c>
-      <c r="B166" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" t="s">
-        <v>315</v>
-      </c>
-      <c r="D166">
-        <v>3302</v>
-      </c>
-      <c r="F166" t="s">
-        <v>451</v>
-      </c>
-      <c r="I166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J166" s="5" t="s">
+      <c r="K166" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B167" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C167" t="s">
         <v>212</v>
       </c>
-      <c r="E167" t="s">
-        <v>317</v>
+      <c r="D167">
+        <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>676</v>
-      </c>
-      <c r="I167">
+        <v>555</v>
+      </c>
+      <c r="G167" t="s">
+        <v>677</v>
+      </c>
+      <c r="J167">
         <v>1</v>
       </c>
-      <c r="J167" s="5" t="s">
+      <c r="K167" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
         <v>212</v>
       </c>
       <c r="D168">
-        <v>3311</v>
-      </c>
-      <c r="F168" t="s">
-        <v>452</v>
-      </c>
-      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>3350</v>
+      </c>
+      <c r="G168" t="s">
+        <v>453</v>
+      </c>
+      <c r="J168">
         <v>1</v>
       </c>
-      <c r="J168" s="5" t="s">
+      <c r="K168" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C169" t="s">
         <v>212</v>
       </c>
-      <c r="E169" t="s">
-        <v>555</v>
+      <c r="D169">
+        <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>677</v>
-      </c>
-      <c r="I169">
+        <v>321</v>
+      </c>
+      <c r="G169" t="s">
+        <v>678</v>
+      </c>
+      <c r="J169">
         <v>1</v>
       </c>
-      <c r="J169" s="5" t="s">
+      <c r="K169" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C170" t="s">
         <v>212</v>
       </c>
       <c r="D170">
-        <v>3350</v>
+        <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>453</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G170" t="s">
+        <v>682</v>
+      </c>
+      <c r="H170" t="s">
+        <v>496</v>
+      </c>
+      <c r="I170" t="s">
+        <v>516</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C171" t="s">
         <v>212</v>
       </c>
-      <c r="E171" t="s">
-        <v>321</v>
-      </c>
-      <c r="F171" t="s">
-        <v>678</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>454</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>128</v>
+        <v>540</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
-      </c>
-      <c r="E172" t="s">
-        <v>322</v>
+        <v>539</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>682</v>
+        <v>323</v>
       </c>
       <c r="G172" t="s">
-        <v>496</v>
+        <v>662</v>
       </c>
       <c r="H172" t="s">
-        <v>516</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="I172" t="s">
+        <v>512</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>129</v>
+        <v>615</v>
       </c>
       <c r="B173" t="s">
         <v>323</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>323</v>
+      </c>
+      <c r="G173" t="s">
+        <v>662</v>
+      </c>
+      <c r="I173" t="s">
+        <v>512</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>130</v>
+      </c>
+      <c r="B174" t="s">
+        <v>324</v>
+      </c>
+      <c r="C174" t="s">
+        <v>214</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>324</v>
+      </c>
+      <c r="G174" t="s">
+        <v>683</v>
+      </c>
+      <c r="H174" t="s">
+        <v>496</v>
+      </c>
+      <c r="I174" t="s">
+        <v>516</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>131</v>
+      </c>
+      <c r="B175" t="s">
+        <v>325</v>
+      </c>
+      <c r="C175" t="s">
+        <v>214</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>325</v>
+      </c>
+      <c r="G175" t="s">
+        <v>696</v>
+      </c>
+      <c r="H175" t="s">
+        <v>496</v>
+      </c>
+      <c r="I175" t="s">
+        <v>516</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>132</v>
+      </c>
+      <c r="B176" t="s">
+        <v>326</v>
+      </c>
+      <c r="C176" t="s">
         <v>212</v>
       </c>
-      <c r="F173" t="s">
-        <v>454</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>540</v>
-      </c>
-      <c r="C174" t="s">
-        <v>539</v>
-      </c>
-      <c r="E174" t="s">
-        <v>323</v>
-      </c>
-      <c r="F174" t="s">
-        <v>662</v>
-      </c>
-      <c r="G174" t="s">
-        <v>498</v>
-      </c>
-      <c r="H174" t="s">
-        <v>512</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>615</v>
-      </c>
-      <c r="E175" t="s">
-        <v>323</v>
-      </c>
-      <c r="F175" t="s">
-        <v>662</v>
-      </c>
-      <c r="H175" t="s">
-        <v>512</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>130</v>
-      </c>
-      <c r="B176" t="s">
-        <v>324</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>326</v>
+      </c>
+      <c r="G176" t="s">
+        <v>701</v>
+      </c>
+      <c r="H176" t="s">
+        <v>496</v>
+      </c>
+      <c r="I176" t="s">
+        <v>516</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" t="s">
+        <v>327</v>
+      </c>
+      <c r="C177" t="s">
+        <v>212</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>327</v>
+      </c>
+      <c r="G177" t="s">
+        <v>681</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>134</v>
+      </c>
+      <c r="B178" t="s">
+        <v>328</v>
+      </c>
+      <c r="C178" t="s">
         <v>214</v>
       </c>
-      <c r="E176" t="s">
-        <v>324</v>
-      </c>
-      <c r="F176" t="s">
-        <v>683</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>455</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" t="s">
+        <v>328</v>
+      </c>
+      <c r="C179" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>328</v>
+      </c>
+      <c r="G179" t="s">
+        <v>708</v>
+      </c>
+      <c r="H179" t="s">
         <v>496</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I179" t="s">
         <v>516</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>131</v>
-      </c>
-      <c r="B177" t="s">
-        <v>325</v>
-      </c>
-      <c r="C177" t="s">
-        <v>214</v>
-      </c>
-      <c r="E177" t="s">
-        <v>325</v>
-      </c>
-      <c r="F177" t="s">
-        <v>696</v>
-      </c>
-      <c r="G177" t="s">
-        <v>496</v>
-      </c>
-      <c r="H177" t="s">
-        <v>516</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>132</v>
-      </c>
-      <c r="B178" t="s">
-        <v>326</v>
-      </c>
-      <c r="C178" t="s">
-        <v>212</v>
-      </c>
-      <c r="E178" t="s">
-        <v>326</v>
-      </c>
-      <c r="F178" t="s">
-        <v>701</v>
-      </c>
-      <c r="G178" t="s">
-        <v>496</v>
-      </c>
-      <c r="H178" t="s">
-        <v>516</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>133</v>
-      </c>
-      <c r="B179" t="s">
-        <v>327</v>
-      </c>
-      <c r="C179" t="s">
-        <v>212</v>
-      </c>
-      <c r="E179" t="s">
-        <v>327</v>
-      </c>
-      <c r="F179" t="s">
-        <v>681</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-      <c r="J179" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C180" t="s">
         <v>214</v>
       </c>
-      <c r="F180" t="s">
-        <v>455</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180" s="5" t="s">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>456</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s">
         <v>243</v>
       </c>
-      <c r="E181" t="s">
-        <v>328</v>
+      <c r="D181">
+        <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>708</v>
+        <v>329</v>
       </c>
       <c r="G181" t="s">
+        <v>709</v>
+      </c>
+      <c r="H181" t="s">
         <v>496</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>516</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>456</v>
-      </c>
-      <c r="I182">
+        <v>330</v>
+      </c>
+      <c r="G182" t="s">
+        <v>684</v>
+      </c>
+      <c r="J182">
         <v>1</v>
       </c>
-      <c r="J182" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K182" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B183" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C183" t="s">
-        <v>243</v>
-      </c>
-      <c r="E183" t="s">
-        <v>329</v>
-      </c>
-      <c r="F183" t="s">
-        <v>709</v>
+        <v>212</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>496</v>
-      </c>
-      <c r="H183" t="s">
-        <v>516</v>
-      </c>
-      <c r="I183">
+        <v>457</v>
+      </c>
+      <c r="J183">
         <v>1</v>
       </c>
-      <c r="J183" s="5" t="s">
+      <c r="K183" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
-      </c>
-      <c r="E184" t="s">
-        <v>330</v>
+        <v>217</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>684</v>
-      </c>
-      <c r="I184">
+        <v>331</v>
+      </c>
+      <c r="G184" t="s">
+        <v>685</v>
+      </c>
+      <c r="J184">
         <v>1</v>
       </c>
-      <c r="J184" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K184" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B185" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C185" t="s">
         <v>212</v>
       </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
       <c r="F185" t="s">
-        <v>457</v>
-      </c>
-      <c r="I185">
+        <v>332</v>
+      </c>
+      <c r="G185" t="s">
+        <v>686</v>
+      </c>
+      <c r="J185">
         <v>1</v>
       </c>
-      <c r="J185" s="5" t="s">
+      <c r="K185" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>217</v>
-      </c>
-      <c r="E186" t="s">
-        <v>331</v>
+        <v>212</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>685</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="G186" t="s">
+        <v>687</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B187" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C187" t="s">
         <v>212</v>
       </c>
-      <c r="E187" t="s">
-        <v>332</v>
+      <c r="D187">
+        <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>686</v>
-      </c>
-      <c r="I187">
+        <v>334</v>
+      </c>
+      <c r="G187" t="s">
+        <v>688</v>
+      </c>
+      <c r="J187">
         <v>1</v>
       </c>
-      <c r="J187" s="5" t="s">
+      <c r="K187" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B188" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C188" t="s">
         <v>212</v>
       </c>
-      <c r="E188" t="s">
-        <v>333</v>
+      <c r="D188">
+        <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>687</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G188" t="s">
+        <v>689</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C189" t="s">
         <v>212</v>
       </c>
-      <c r="E189" t="s">
-        <v>334</v>
+      <c r="D189">
+        <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>688</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G189" t="s">
+        <v>690</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C190" t="s">
         <v>212</v>
       </c>
-      <c r="E190" t="s">
-        <v>335</v>
+      <c r="D190">
+        <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>689</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G190" t="s">
+        <v>691</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C191" t="s">
         <v>212</v>
       </c>
-      <c r="E191" t="s">
-        <v>336</v>
+      <c r="D191">
+        <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>690</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="G191" t="s">
+        <v>692</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C192" t="s">
         <v>212</v>
       </c>
-      <c r="E192" t="s">
-        <v>337</v>
+      <c r="D192">
+        <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>691</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="G192" t="s">
+        <v>693</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C193" t="s">
         <v>212</v>
       </c>
-      <c r="E193" t="s">
-        <v>338</v>
+      <c r="D193">
+        <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>692</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="G193" t="s">
+        <v>694</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B194" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C194" t="s">
         <v>212</v>
       </c>
-      <c r="E194" t="s">
-        <v>556</v>
+      <c r="D194">
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>693</v>
-      </c>
-      <c r="I194">
+        <v>341</v>
+      </c>
+      <c r="G194" t="s">
+        <v>695</v>
+      </c>
+      <c r="J194">
         <v>1</v>
       </c>
-      <c r="J194" s="5" t="s">
+      <c r="K194" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B195" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C195" t="s">
+        <v>345</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>4000</v>
+      </c>
+      <c r="G195" t="s">
+        <v>459</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>151</v>
+      </c>
+      <c r="B196" t="s">
+        <v>342</v>
+      </c>
+      <c r="C196" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>152</v>
+      </c>
+      <c r="B197" t="s">
+        <v>342</v>
+      </c>
+      <c r="C197" t="s">
+        <v>217</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>153</v>
+      </c>
+      <c r="B198" t="s">
+        <v>343</v>
+      </c>
+      <c r="C198" t="s">
+        <v>218</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>4000</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H198" t="s">
+        <v>494</v>
+      </c>
+      <c r="I198" t="s">
+        <v>532</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" t="s">
+        <v>344</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>458</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>155</v>
+      </c>
+      <c r="B200" t="s">
+        <v>344</v>
+      </c>
+      <c r="C200" t="s">
         <v>212</v>
       </c>
-      <c r="E195" t="s">
-        <v>340</v>
-      </c>
-      <c r="F195" t="s">
-        <v>694</v>
-      </c>
-      <c r="I195">
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>344</v>
+      </c>
+      <c r="G200" t="s">
+        <v>697</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>157</v>
+      </c>
+      <c r="B201" t="s">
+        <v>346</v>
+      </c>
+      <c r="C201" t="s">
+        <v>212</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>4100</v>
+      </c>
+      <c r="G201" t="s">
+        <v>460</v>
+      </c>
+      <c r="J201">
         <v>1</v>
       </c>
-      <c r="J195" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>150</v>
-      </c>
-      <c r="B196" t="s">
-        <v>341</v>
-      </c>
-      <c r="C196" t="s">
-        <v>212</v>
-      </c>
-      <c r="E196" t="s">
-        <v>341</v>
-      </c>
-      <c r="F196" t="s">
-        <v>695</v>
-      </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
-      <c r="J196" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>156</v>
-      </c>
-      <c r="B197">
-        <v>4000</v>
-      </c>
-      <c r="C197" t="s">
-        <v>345</v>
-      </c>
-      <c r="D197">
-        <v>4000</v>
-      </c>
-      <c r="F197" t="s">
-        <v>459</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-      <c r="J197" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>151</v>
-      </c>
-      <c r="B198" t="s">
-        <v>342</v>
-      </c>
-      <c r="C198" t="s">
-        <v>214</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-      <c r="J198" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>152</v>
-      </c>
-      <c r="B199" t="s">
-        <v>342</v>
-      </c>
-      <c r="C199" t="s">
-        <v>217</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>153</v>
-      </c>
-      <c r="B200" t="s">
-        <v>343</v>
-      </c>
-      <c r="C200" t="s">
-        <v>218</v>
-      </c>
-      <c r="D200">
-        <v>4000</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="G200" t="s">
-        <v>494</v>
-      </c>
-      <c r="H200" t="s">
-        <v>532</v>
-      </c>
-      <c r="I200">
-        <v>1</v>
-      </c>
-      <c r="J200" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>154</v>
-      </c>
-      <c r="B201" t="s">
-        <v>344</v>
-      </c>
-      <c r="C201" t="s">
-        <v>214</v>
-      </c>
-      <c r="F201" t="s">
-        <v>458</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K201" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C202" t="s">
         <v>212</v>
       </c>
-      <c r="E202" t="s">
-        <v>344</v>
-      </c>
-      <c r="F202" t="s">
-        <v>697</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="G202" t="s">
+        <v>461</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D203">
-        <v>4100</v>
-      </c>
-      <c r="F203" t="s">
-        <v>460</v>
-      </c>
-      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="E203">
+        <v>4110</v>
+      </c>
+      <c r="G203" t="s">
+        <v>461</v>
+      </c>
+      <c r="J203">
         <v>1</v>
       </c>
-      <c r="J203" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K203" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C204" t="s">
         <v>212</v>
       </c>
-      <c r="F204" t="s">
-        <v>461</v>
-      </c>
-      <c r="I204">
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>4130</v>
+      </c>
+      <c r="G204" t="s">
+        <v>462</v>
+      </c>
+      <c r="J204">
         <v>1</v>
       </c>
-      <c r="J204" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K204" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B205" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C205" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D205">
-        <v>4110</v>
-      </c>
-      <c r="F205" t="s">
-        <v>461</v>
-      </c>
-      <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>4140</v>
+      </c>
+      <c r="G205" t="s">
+        <v>463</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C206" t="s">
         <v>212</v>
       </c>
       <c r="D206">
-        <v>4130</v>
+        <v>2</v>
       </c>
       <c r="F206" t="s">
-        <v>462</v>
-      </c>
-      <c r="I206">
+        <v>557</v>
+      </c>
+      <c r="G206" t="s">
+        <v>698</v>
+      </c>
+      <c r="J206">
         <v>1</v>
       </c>
-      <c r="J206" s="5" t="s">
+      <c r="K206" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B207" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C207" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D207">
-        <v>4140</v>
+        <v>2</v>
       </c>
       <c r="F207" t="s">
-        <v>463</v>
-      </c>
-      <c r="I207">
+        <v>351</v>
+      </c>
+      <c r="G207" t="s">
+        <v>699</v>
+      </c>
+      <c r="J207">
         <v>1</v>
       </c>
-      <c r="J207" s="5" t="s">
+      <c r="K207" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B208" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C208" t="s">
         <v>212</v>
       </c>
-      <c r="E208" t="s">
-        <v>557</v>
-      </c>
-      <c r="F208" t="s">
-        <v>698</v>
-      </c>
-      <c r="I208">
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>4200</v>
+      </c>
+      <c r="G208" t="s">
+        <v>464</v>
+      </c>
+      <c r="J208">
         <v>1</v>
       </c>
-      <c r="J208" s="5" t="s">
+      <c r="K208" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B209" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C209" t="s">
-        <v>212</v>
-      </c>
-      <c r="E209" t="s">
-        <v>351</v>
+        <v>214</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>699</v>
-      </c>
-      <c r="I209">
+        <v>355</v>
+      </c>
+      <c r="G209" t="s">
+        <v>700</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>165</v>
+      </c>
+      <c r="B210" t="s">
+        <v>353</v>
+      </c>
+      <c r="C210" t="s">
+        <v>214</v>
+      </c>
+      <c r="D210">
         <v>1</v>
       </c>
-      <c r="J209" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>164</v>
-      </c>
-      <c r="B210" t="s">
-        <v>352</v>
-      </c>
-      <c r="C210" t="s">
-        <v>212</v>
-      </c>
-      <c r="D210">
-        <v>4200</v>
-      </c>
-      <c r="F210" t="s">
-        <v>464</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
-      <c r="J210" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B211" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
-      </c>
-      <c r="E211" t="s">
-        <v>355</v>
-      </c>
-      <c r="F211" t="s">
-        <v>700</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>630</v>
+      </c>
+      <c r="H211" t="s">
+        <v>495</v>
+      </c>
+      <c r="I211" t="s">
+        <v>513</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B212" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C212" t="s">
         <v>214</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" s="5" t="s">
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>465</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C213" t="s">
-        <v>354</v>
+        <v>212</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>630</v>
+        <v>356</v>
       </c>
       <c r="G213" t="s">
-        <v>495</v>
-      </c>
-      <c r="H213" t="s">
-        <v>513</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B214" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C214" t="s">
         <v>214</v>
       </c>
-      <c r="F214" t="s">
-        <v>465</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214" s="5" t="s">
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>466</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B215" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C215" t="s">
         <v>212</v>
       </c>
-      <c r="E215" t="s">
-        <v>356</v>
+      <c r="D215">
+        <v>2</v>
       </c>
       <c r="F215" t="s">
-        <v>702</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G215" t="s">
+        <v>703</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C216" t="s">
         <v>214</v>
       </c>
-      <c r="F216" t="s">
-        <v>466</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="J216" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>467</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B217" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C217" t="s">
         <v>212</v>
       </c>
-      <c r="E217" t="s">
-        <v>357</v>
+      <c r="D217">
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>703</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="G217" t="s">
+        <v>704</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C218" t="s">
         <v>214</v>
       </c>
-      <c r="F218" t="s">
-        <v>467</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>468</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B219" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C219" t="s">
         <v>212</v>
       </c>
-      <c r="E219" t="s">
-        <v>358</v>
+      <c r="D219">
+        <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>704</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G219" t="s">
+        <v>705</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>176</v>
+      </c>
+      <c r="B220" t="s">
+        <v>360</v>
+      </c>
+      <c r="C220" t="s">
+        <v>212</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>4230</v>
+      </c>
+      <c r="G220" t="s">
+        <v>469</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>177</v>
+      </c>
+      <c r="B221" t="s">
+        <v>361</v>
+      </c>
+      <c r="C221" t="s">
+        <v>214</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>4240</v>
+      </c>
+      <c r="G221" t="s">
+        <v>470</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>174</v>
-      </c>
-      <c r="B220" t="s">
-        <v>359</v>
-      </c>
-      <c r="C220" t="s">
-        <v>214</v>
-      </c>
-      <c r="F220" t="s">
-        <v>468</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>175</v>
-      </c>
-      <c r="B221" t="s">
-        <v>359</v>
-      </c>
-      <c r="C221" t="s">
-        <v>212</v>
-      </c>
-      <c r="E221" t="s">
-        <v>359</v>
-      </c>
-      <c r="F221" t="s">
-        <v>705</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B222" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C222" t="s">
         <v>212</v>
       </c>
       <c r="D222">
-        <v>4230</v>
-      </c>
-      <c r="F222" t="s">
-        <v>469</v>
-      </c>
-      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>4250</v>
+      </c>
+      <c r="G222" t="s">
+        <v>471</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>179</v>
+      </c>
+      <c r="B223" t="s">
+        <v>363</v>
+      </c>
+      <c r="C223" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="G223" t="s">
+        <v>472</v>
+      </c>
+      <c r="J223">
         <v>1</v>
       </c>
-      <c r="J222" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>177</v>
-      </c>
-      <c r="B223" t="s">
-        <v>361</v>
-      </c>
-      <c r="C223" t="s">
-        <v>214</v>
-      </c>
-      <c r="D223">
-        <v>4240</v>
-      </c>
-      <c r="F223" t="s">
-        <v>470</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K223" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B224" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C224" t="s">
         <v>212</v>
       </c>
       <c r="D224">
-        <v>4250</v>
-      </c>
-      <c r="F224" t="s">
-        <v>471</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>6110</v>
+      </c>
+      <c r="G224" t="s">
+        <v>472</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C225" t="s">
         <v>212</v>
       </c>
-      <c r="F225" t="s">
-        <v>472</v>
-      </c>
-      <c r="I225">
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>6400</v>
+      </c>
+      <c r="G225" t="s">
+        <v>473</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>182</v>
+      </c>
+      <c r="B226" t="s">
+        <v>366</v>
+      </c>
+      <c r="C226" t="s">
+        <v>367</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="J226">
         <v>1</v>
       </c>
-      <c r="J225" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>180</v>
-      </c>
-      <c r="B226" t="s">
-        <v>364</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="K226" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>601</v>
+      </c>
+      <c r="B227" t="s">
+        <v>366</v>
+      </c>
+      <c r="C227" t="s">
+        <v>217</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>6430</v>
+      </c>
+      <c r="G227" t="s">
+        <v>412</v>
+      </c>
+      <c r="K227"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>183</v>
+      </c>
+      <c r="B228" t="s">
+        <v>368</v>
+      </c>
+      <c r="C228" t="s">
+        <v>214</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>474</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" t="s">
+        <v>369</v>
+      </c>
+      <c r="C229" t="s">
         <v>212</v>
       </c>
-      <c r="D226">
-        <v>6110</v>
-      </c>
-      <c r="F226" t="s">
-        <v>472</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>181</v>
-      </c>
-      <c r="B227" t="s">
-        <v>365</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>6440</v>
+      </c>
+      <c r="G229" t="s">
+        <v>475</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" t="s">
+        <v>370</v>
+      </c>
+      <c r="C230" t="s">
         <v>212</v>
       </c>
-      <c r="D227">
-        <v>6400</v>
-      </c>
-      <c r="F227" t="s">
-        <v>473</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>182</v>
-      </c>
-      <c r="B228" t="s">
-        <v>366</v>
-      </c>
-      <c r="C228" t="s">
-        <v>367</v>
-      </c>
-      <c r="I228">
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>476</v>
+      </c>
+      <c r="J230">
         <v>1</v>
       </c>
-      <c r="J228" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>601</v>
-      </c>
-      <c r="B229" t="s">
-        <v>366</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="K230" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>186</v>
+      </c>
+      <c r="B231" t="s">
+        <v>370</v>
+      </c>
+      <c r="C231" t="s">
         <v>217</v>
       </c>
-      <c r="D229">
-        <v>6430</v>
-      </c>
-      <c r="F229" t="s">
-        <v>412</v>
-      </c>
-      <c r="J229"/>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>183</v>
-      </c>
-      <c r="B230" t="s">
-        <v>368</v>
-      </c>
-      <c r="C230" t="s">
-        <v>214</v>
-      </c>
-      <c r="F230" t="s">
-        <v>474</v>
-      </c>
-      <c r="I230">
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231">
+        <v>6450</v>
+      </c>
+      <c r="G231" t="s">
+        <v>476</v>
+      </c>
+      <c r="J231">
         <v>1</v>
       </c>
-      <c r="J230" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>184</v>
-      </c>
-      <c r="B231" t="s">
-        <v>369</v>
-      </c>
-      <c r="C231" t="s">
-        <v>212</v>
-      </c>
-      <c r="D231">
-        <v>6440</v>
-      </c>
-      <c r="F231" t="s">
-        <v>475</v>
-      </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
-      <c r="J231" s="5" t="s">
+      <c r="K231" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C232" t="s">
         <v>212</v>
       </c>
-      <c r="F232" t="s">
-        <v>476</v>
-      </c>
-      <c r="I232">
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="G232" t="s">
+        <v>477</v>
+      </c>
+      <c r="J232">
         <v>1</v>
       </c>
-      <c r="J232" s="5" t="s">
+      <c r="K232" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B233" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C233" t="s">
+        <v>372</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>6480</v>
+      </c>
+      <c r="G233" t="s">
+        <v>477</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>189</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C234" t="s">
+        <v>214</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
+        <v>478</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>190</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C235" t="s">
+        <v>212</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="G235" t="s">
+        <v>478</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C236" t="s">
         <v>217</v>
       </c>
-      <c r="D233">
-        <v>6450</v>
-      </c>
-      <c r="F233" t="s">
-        <v>476</v>
-      </c>
-      <c r="I233">
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>6530</v>
+      </c>
+      <c r="G236" t="s">
+        <v>478</v>
+      </c>
+      <c r="J236">
         <v>1</v>
       </c>
-      <c r="J233" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>188</v>
-      </c>
-      <c r="B234" t="s">
-        <v>371</v>
-      </c>
-      <c r="C234" t="s">
-        <v>212</v>
-      </c>
-      <c r="F234" t="s">
-        <v>477</v>
-      </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
-      <c r="J234" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>187</v>
-      </c>
-      <c r="B235" t="s">
-        <v>371</v>
-      </c>
-      <c r="C235" t="s">
-        <v>372</v>
-      </c>
-      <c r="D235">
-        <v>6480</v>
-      </c>
-      <c r="F235" t="s">
-        <v>477</v>
-      </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
-      <c r="J235" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>189</v>
-      </c>
-      <c r="B236">
-        <v>6530</v>
-      </c>
-      <c r="C236" t="s">
-        <v>214</v>
-      </c>
-      <c r="F236" t="s">
-        <v>478</v>
-      </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
-      <c r="J236" s="5" t="s">
+      <c r="K236" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>190</v>
-      </c>
-      <c r="B237">
-        <v>6530</v>
+        <v>192</v>
+      </c>
+      <c r="B237" t="s">
+        <v>373</v>
       </c>
       <c r="C237" t="s">
         <v>212</v>
       </c>
-      <c r="F237" t="s">
-        <v>478</v>
-      </c>
-      <c r="I237">
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>479</v>
+      </c>
+      <c r="J237">
         <v>1</v>
       </c>
-      <c r="J237" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K237" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>191</v>
-      </c>
-      <c r="B238">
-        <v>6530</v>
+        <v>193</v>
+      </c>
+      <c r="B238" t="s">
+        <v>373</v>
       </c>
       <c r="C238" t="s">
         <v>217</v>
       </c>
       <c r="D238">
-        <v>6530</v>
-      </c>
-      <c r="F238" t="s">
-        <v>478</v>
-      </c>
-      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="E238">
+        <v>6540</v>
+      </c>
+      <c r="G238" t="s">
+        <v>479</v>
+      </c>
+      <c r="J238">
         <v>1</v>
       </c>
-      <c r="J238" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K238" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>192</v>
+        <v>602</v>
       </c>
       <c r="B239" t="s">
         <v>373</v>
       </c>
       <c r="C239" t="s">
-        <v>212</v>
-      </c>
-      <c r="F239" t="s">
-        <v>479</v>
-      </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D239">
+        <v>4</v>
+      </c>
+      <c r="K239"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>193</v>
+        <v>603</v>
       </c>
       <c r="B240" t="s">
         <v>373</v>
       </c>
       <c r="C240" t="s">
+        <v>609</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>6540</v>
+      </c>
+      <c r="K240"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>194</v>
+      </c>
+      <c r="B241" t="s">
+        <v>374</v>
+      </c>
+      <c r="C241" t="s">
+        <v>214</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>6550</v>
+      </c>
+      <c r="G241" t="s">
+        <v>480</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>195</v>
+      </c>
+      <c r="B242" t="s">
+        <v>375</v>
+      </c>
+      <c r="C242" t="s">
+        <v>214</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>375</v>
+      </c>
+      <c r="G242" t="s">
+        <v>706</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>198</v>
+      </c>
+      <c r="B243" t="s">
+        <v>377</v>
+      </c>
+      <c r="C243" t="s">
         <v>217</v>
       </c>
-      <c r="D240">
-        <v>6540</v>
-      </c>
-      <c r="F240" t="s">
-        <v>479</v>
-      </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
-      <c r="J240" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>602</v>
-      </c>
-      <c r="B241" t="s">
-        <v>373</v>
-      </c>
-      <c r="C241" t="s">
-        <v>218</v>
-      </c>
-      <c r="J241"/>
-    </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>603</v>
-      </c>
-      <c r="B242" t="s">
-        <v>373</v>
-      </c>
-      <c r="C242" t="s">
-        <v>609</v>
-      </c>
-      <c r="D242">
-        <v>6540</v>
-      </c>
-      <c r="J242"/>
-    </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>194</v>
-      </c>
-      <c r="B243" t="s">
-        <v>374</v>
-      </c>
-      <c r="C243" t="s">
-        <v>214</v>
-      </c>
       <c r="D243">
-        <v>6550</v>
-      </c>
-      <c r="F243" t="s">
-        <v>480</v>
-      </c>
-      <c r="I243">
-        <v>1</v>
-      </c>
-      <c r="J243" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>195</v>
+        <v>3</v>
+      </c>
+      <c r="E243">
+        <v>7060</v>
+      </c>
+      <c r="G243" t="s">
+        <v>482</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="B244" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
-      </c>
-      <c r="E244" t="s">
-        <v>375</v>
-      </c>
-      <c r="F244" t="s">
-        <v>706</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-      <c r="J244" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="G244" t="s">
+        <v>481</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="B245" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C245" t="s">
         <v>217</v>
       </c>
       <c r="D245">
-        <v>7060</v>
+        <v>3</v>
       </c>
       <c r="F245" t="s">
+        <v>376</v>
+      </c>
+      <c r="G245" t="s">
         <v>482</v>
       </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245" s="5" t="s">
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B246" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C246" t="s">
         <v>212</v>
       </c>
-      <c r="F246" t="s">
-        <v>481</v>
-      </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-      <c r="J246" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>8020</v>
+      </c>
+      <c r="G246" t="s">
+        <v>483</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C247" t="s">
-        <v>217</v>
-      </c>
-      <c r="E247" t="s">
-        <v>376</v>
+        <v>214</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
-      </c>
-      <c r="I247">
-        <v>0</v>
-      </c>
-      <c r="J247" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="G247" t="s">
+        <v>707</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B248" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C248" t="s">
         <v>212</v>
       </c>
       <c r="D248">
-        <v>8020</v>
-      </c>
-      <c r="F248" t="s">
-        <v>483</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>8030</v>
+      </c>
+      <c r="G248" t="s">
+        <v>484</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B249" t="s">
+        <v>381</v>
+      </c>
+      <c r="C249" t="s">
+        <v>212</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>8040</v>
+      </c>
+      <c r="G249" t="s">
+        <v>485</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B249" t="s">
-        <v>379</v>
-      </c>
-      <c r="C249" t="s">
-        <v>214</v>
-      </c>
-      <c r="E249" t="s">
-        <v>379</v>
-      </c>
-      <c r="F249" t="s">
-        <v>707</v>
-      </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-      <c r="J249" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B250" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C250" t="s">
         <v>212</v>
       </c>
       <c r="D250">
-        <v>8030</v>
-      </c>
-      <c r="F250" t="s">
-        <v>484</v>
-      </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="J250" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>8050</v>
+      </c>
+      <c r="G250" t="s">
+        <v>486</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B251" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C251" t="s">
         <v>212</v>
       </c>
       <c r="D251">
-        <v>8040</v>
-      </c>
-      <c r="F251" t="s">
-        <v>485</v>
-      </c>
-      <c r="I251">
-        <v>0</v>
-      </c>
-      <c r="J251" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>8060</v>
+      </c>
+      <c r="G251" t="s">
+        <v>487</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B252" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C252" t="s">
         <v>212</v>
       </c>
       <c r="D252">
-        <v>8050</v>
-      </c>
-      <c r="F252" t="s">
-        <v>486</v>
-      </c>
-      <c r="I252">
-        <v>1</v>
-      </c>
-      <c r="J252" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>488</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B253" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C253" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D253">
-        <v>8060</v>
-      </c>
-      <c r="F253" t="s">
-        <v>487</v>
-      </c>
-      <c r="I253">
-        <v>0</v>
-      </c>
-      <c r="J253" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253">
+        <v>8070</v>
+      </c>
+      <c r="G253" t="s">
+        <v>488</v>
+      </c>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B254" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C254" t="s">
         <v>212</v>
       </c>
-      <c r="F254" t="s">
-        <v>488</v>
-      </c>
-      <c r="I254">
-        <v>0</v>
-      </c>
-      <c r="J254" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>8080</v>
+      </c>
+      <c r="G254" t="s">
+        <v>489</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B255" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C255" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D255">
-        <v>8070</v>
-      </c>
-      <c r="F255" t="s">
-        <v>488</v>
-      </c>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="J255" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>8090</v>
+      </c>
+      <c r="G255" t="s">
+        <v>490</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
-        <v>207</v>
+        <v>604</v>
       </c>
       <c r="B256" t="s">
-        <v>385</v>
+        <v>610</v>
       </c>
       <c r="C256" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D256">
-        <v>8080</v>
-      </c>
-      <c r="F256" t="s">
-        <v>489</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="J256" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>612</v>
+      </c>
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B257" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C257" t="s">
         <v>212</v>
       </c>
       <c r="D257">
-        <v>8090</v>
-      </c>
-      <c r="F257" t="s">
-        <v>490</v>
-      </c>
-      <c r="I257">
-        <v>0</v>
-      </c>
-      <c r="J257" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>450</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B258" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C258" t="s">
         <v>214</v>
       </c>
-      <c r="D258" t="s">
-        <v>612</v>
-      </c>
-      <c r="J258"/>
-    </row>
-    <row r="259" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>613</v>
+      </c>
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="13" t="s">
-        <v>209</v>
+        <v>593</v>
       </c>
       <c r="B259" t="s">
-        <v>392</v>
-      </c>
-      <c r="C259" t="s">
-        <v>212</v>
-      </c>
-      <c r="F259" t="s">
-        <v>450</v>
-      </c>
-      <c r="I259">
-        <v>0</v>
-      </c>
-      <c r="J259" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="B260" t="s">
-        <v>611</v>
-      </c>
-      <c r="C260" t="s">
-        <v>214</v>
-      </c>
-      <c r="D260" t="s">
-        <v>613</v>
-      </c>
-      <c r="J260"/>
-    </row>
-    <row r="261" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="J261" t="s">
-        <v>508</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J261" xr:uid="{62C74BDA-1CA2-41DA-BD18-2F619CC5F0C8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2400-EAG-1_F001.xlsx"/>
-        <filter val="2400-EAG-1_F002 speelversie.xlsx"/>
-        <filter val="2400-EAG-1_F002 speelversie.xlsx"/>
-        <filter val="2400-EAG-1_F003 laatste versie.xlsx"/>
-        <filter val="2400-EAG-1_PRH_tm2017.xlsx"/>
-        <filter val="2400-EAG-2_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-2_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-2_F003 laatste versie.xlsx"/>
-        <filter val="2400-EAG-3_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-3_F001 laatste versie.xlsx"/>
-        <filter val="2400-EAG-3_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-3_F001.xlsx"/>
-        <filter val="2400-EAG-4_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-4_F001 laatste versie.xlsx"/>
-        <filter val="2400-EAG-4_F001 speelversie.xlsx"/>
-        <filter val="2400-EAG-4_F001.xlsx"/>
-        <filter val="2400-EAG-5_F002_Reservaat.xlsx"/>
-        <filter val="2400-EAG-6_F002.xlsx"/>
-        <filter val="2400-EAG-6_F002_Benning.xlsx"/>
-        <filter val="2400-EAG-6_F004_Benning.xlsx"/>
-        <filter val="2400-GAF_F001.xlsx"/>
-        <filter val="2400-GAF_F002.xlsx"/>
-        <filter val="2400-GAF_F003 laatste versie.xlsx"/>
-        <filter val="2400-PRH-Benning.xlsx"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J261">
-      <sortCondition ref="A1:A261"/>
+  <autoFilter ref="A1:K259" xr:uid="{62C74BDA-1CA2-41DA-BD18-2F619CC5F0C8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K259">
+      <sortCondition ref="A1:A259"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pbelasting/input/190324_koppeltabel.xlsx
+++ b/pbelasting/input/190324_koppeltabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1729.N.19 AGV data analyse\WaternetAnalyse\pbelasting\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04607584-810B-4709-922C-F4DEFD3FBEC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC316AE-E1C1-4945-96BA-49231FA63014}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
@@ -3710,7 +3710,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3905,6 +3905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4E5C68"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,7 +4111,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4143,6 +4149,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5627,15 +5634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="12" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
@@ -5654,10 +5662,10 @@
       <c r="D1" t="s">
         <v>1160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>389</v>
       </c>
       <c r="G1" t="s">
@@ -5689,7 +5697,7 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <v>2010</v>
       </c>
       <c r="G2" t="s">
@@ -5738,7 +5746,7 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="19">
         <v>2100</v>
       </c>
       <c r="G4" t="s">
@@ -5764,7 +5772,7 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>2110</v>
       </c>
       <c r="G5" t="s">
@@ -5842,7 +5850,7 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <v>2120</v>
       </c>
       <c r="G8" t="s">
@@ -5874,7 +5882,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="19" t="s">
         <v>219</v>
       </c>
       <c r="G9" t="s">
@@ -5923,7 +5931,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="19">
         <v>2130</v>
       </c>
       <c r="G11" t="s">
@@ -5955,7 +5963,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="19" t="s">
         <v>223</v>
       </c>
       <c r="G12" t="s">
@@ -5981,7 +5989,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="19" t="s">
         <v>224</v>
       </c>
       <c r="G13" t="s">
@@ -6030,7 +6038,7 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="19">
         <v>2140</v>
       </c>
       <c r="G15" t="s">
@@ -6056,7 +6064,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="19">
         <v>2150</v>
       </c>
       <c r="G16" t="s">
@@ -6105,7 +6113,7 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="19">
         <v>2210</v>
       </c>
       <c r="G18" t="s">
@@ -6165,7 +6173,7 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="19" t="s">
         <v>587</v>
       </c>
       <c r="G21" t="s">
@@ -6197,7 +6205,7 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="19">
         <v>2220</v>
       </c>
       <c r="G22" t="s">
@@ -6223,7 +6231,7 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="19">
         <v>2230</v>
       </c>
       <c r="G23" t="s">
@@ -6249,7 +6257,7 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="19">
         <v>2240</v>
       </c>
       <c r="G24" t="s">
@@ -6275,7 +6283,7 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="19" t="s">
         <v>560</v>
       </c>
       <c r="G25" t="s">
@@ -6318,7 +6326,7 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="19" t="s">
         <v>231</v>
       </c>
       <c r="G27" t="s">
@@ -6344,7 +6352,7 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="19">
         <v>2250</v>
       </c>
       <c r="G28" t="s">
@@ -6370,7 +6378,7 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="19">
         <v>2270</v>
       </c>
       <c r="G29" t="s">
@@ -6442,7 +6450,7 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="19">
         <v>2290</v>
       </c>
       <c r="G32" t="s">
@@ -6468,7 +6476,7 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="19">
         <v>2300</v>
       </c>
       <c r="G33" t="s">
@@ -6494,7 +6502,7 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="19">
         <v>2310</v>
       </c>
       <c r="G34" t="s">
@@ -6566,7 +6574,7 @@
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="19">
         <v>2330</v>
       </c>
       <c r="G37" t="s">
@@ -6592,7 +6600,7 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="19">
         <v>2340</v>
       </c>
       <c r="G38" t="s">
@@ -6660,7 +6668,7 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G42" t="s">
@@ -6725,7 +6733,7 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="19" t="s">
         <v>624</v>
       </c>
       <c r="G46" t="s">
@@ -6776,7 +6784,7 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="19" t="s">
         <v>244</v>
       </c>
       <c r="G49" t="s">
@@ -6842,7 +6850,7 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="19" t="s">
         <v>245</v>
       </c>
       <c r="G52" t="s">
@@ -6893,7 +6901,7 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="19" t="s">
         <v>623</v>
       </c>
       <c r="G55" t="s">
@@ -6953,7 +6961,7 @@
       <c r="D58">
         <v>4</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="19" t="s">
         <v>246</v>
       </c>
       <c r="G58" t="s">
@@ -7042,7 +7050,7 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="19">
         <v>2400</v>
       </c>
       <c r="G62" t="s">
@@ -7079,7 +7087,7 @@
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="19">
         <v>2410</v>
       </c>
       <c r="G64" t="s">
@@ -7105,7 +7113,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="19" t="s">
         <v>250</v>
       </c>
       <c r="G65" t="s">
@@ -7134,7 +7142,7 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="19" t="s">
         <v>584</v>
       </c>
       <c r="G66" t="s">
@@ -7166,7 +7174,7 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="19" t="s">
         <v>585</v>
       </c>
       <c r="G67" t="s">
@@ -7198,7 +7206,7 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="19" t="s">
         <v>253</v>
       </c>
       <c r="G68" t="s">
@@ -7253,7 +7261,7 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G70" t="s">
@@ -7279,7 +7287,7 @@
       <c r="D71">
         <v>2</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G71" t="s">
@@ -7316,7 +7324,7 @@
       <c r="D73">
         <v>4</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G73" t="s">
@@ -7348,7 +7356,7 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="19">
         <v>2500</v>
       </c>
       <c r="G74" t="s">
@@ -7374,7 +7382,7 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="19" t="s">
         <v>256</v>
       </c>
       <c r="G75" t="s">
@@ -7403,7 +7411,7 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="19">
         <v>2501</v>
       </c>
       <c r="G76" t="s">
@@ -7432,7 +7440,7 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="19" t="s">
         <v>256</v>
       </c>
       <c r="G77" t="s">
@@ -7458,7 +7466,7 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="19" t="s">
         <v>257</v>
       </c>
       <c r="G78" t="s">
@@ -7484,7 +7492,7 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="19">
         <v>2502</v>
       </c>
       <c r="G79" t="s">
@@ -7510,7 +7518,7 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="19">
         <v>2503</v>
       </c>
       <c r="G80" t="s">
@@ -7536,7 +7544,7 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="19">
         <v>2504</v>
       </c>
       <c r="G81" t="s">
@@ -7562,7 +7570,7 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G82" t="s">
@@ -7588,7 +7596,7 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="19" t="s">
         <v>547</v>
       </c>
       <c r="G83" t="s">
@@ -7614,7 +7622,7 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="19" t="s">
         <v>264</v>
       </c>
       <c r="G84" t="s">
@@ -7640,7 +7648,7 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="19" t="s">
         <v>265</v>
       </c>
       <c r="G85" t="s">
@@ -7666,7 +7674,7 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="19">
         <v>2510</v>
       </c>
       <c r="G86" t="s">
@@ -7695,7 +7703,7 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="19">
         <v>2511</v>
       </c>
       <c r="G87" t="s">
@@ -7721,7 +7729,7 @@
       <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="19">
         <v>2520</v>
       </c>
       <c r="G88" t="s">
@@ -7747,7 +7755,7 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="19">
         <v>2530</v>
       </c>
       <c r="G89" t="s">
@@ -7773,7 +7781,7 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="19">
         <v>2540</v>
       </c>
       <c r="G90" t="s">
@@ -7802,7 +7810,7 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="19">
         <v>2400</v>
       </c>
       <c r="K91"/>
@@ -7843,7 +7851,7 @@
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="19">
         <v>2550</v>
       </c>
       <c r="G93" t="s">
@@ -7875,7 +7883,7 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="19">
         <v>2560</v>
       </c>
       <c r="G94" t="s">
@@ -7924,7 +7932,7 @@
       <c r="D96">
         <v>3</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="19">
         <v>2570</v>
       </c>
       <c r="G96" t="s">
@@ -7973,7 +7981,7 @@
       <c r="D98">
         <v>3</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="19">
         <v>2600</v>
       </c>
       <c r="G98" t="s">
@@ -8028,7 +8036,7 @@
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="19">
         <v>2610</v>
       </c>
       <c r="G100" t="s">
@@ -8100,7 +8108,7 @@
       <c r="D103">
         <v>3</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="19">
         <v>2620</v>
       </c>
       <c r="G103" t="s">
@@ -8126,7 +8134,7 @@
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="19" t="s">
         <v>608</v>
       </c>
       <c r="G104" t="s">
@@ -8170,7 +8178,7 @@
       <c r="D106">
         <v>2</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="19">
         <v>2630</v>
       </c>
       <c r="G106" t="s">
@@ -8196,7 +8204,7 @@
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="19" t="s">
         <v>548</v>
       </c>
       <c r="G107" t="s">
@@ -8245,7 +8253,7 @@
       <c r="D109">
         <v>3</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="19">
         <v>3020</v>
       </c>
       <c r="G109" t="s">
@@ -8294,7 +8302,7 @@
       <c r="D111">
         <v>2</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="19" t="s">
         <v>281</v>
       </c>
       <c r="G111" t="s">
@@ -8343,7 +8351,7 @@
       <c r="D113">
         <v>2</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="19" t="s">
         <v>282</v>
       </c>
       <c r="G113" t="s">
@@ -8392,7 +8400,7 @@
       <c r="D115">
         <v>3</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="19">
         <v>3070</v>
       </c>
       <c r="G115" t="s">
@@ -8444,7 +8452,7 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="19">
         <v>3100</v>
       </c>
       <c r="G117" t="s">
@@ -8476,7 +8484,7 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="19" t="s">
         <v>285</v>
       </c>
       <c r="G118" t="s">
@@ -8502,7 +8510,7 @@
       <c r="D119">
         <v>2</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="19" t="s">
         <v>550</v>
       </c>
       <c r="G119" t="s">
@@ -8528,7 +8536,7 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="19" t="s">
         <v>287</v>
       </c>
       <c r="G120" t="s">
@@ -8577,7 +8585,7 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="19">
         <v>3200</v>
       </c>
       <c r="G122" t="s">
@@ -8632,7 +8640,7 @@
       <c r="D124">
         <v>2</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="19" t="s">
         <v>289</v>
       </c>
       <c r="G124" t="s">
@@ -8710,7 +8718,7 @@
       <c r="D127">
         <v>2</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="19" t="s">
         <v>292</v>
       </c>
       <c r="G127" t="s">
@@ -8759,7 +8767,7 @@
       <c r="D129">
         <v>2</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="19" t="s">
         <v>293</v>
       </c>
       <c r="G129" t="s">
@@ -8785,7 +8793,7 @@
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="19">
         <v>3210</v>
       </c>
       <c r="G130" t="s">
@@ -8841,7 +8849,7 @@
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="19" t="s">
         <v>393</v>
       </c>
       <c r="G133" t="s">
@@ -8867,7 +8875,7 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="19">
         <v>3220</v>
       </c>
       <c r="G134" t="s">
@@ -8893,7 +8901,7 @@
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="19" t="s">
         <v>303</v>
       </c>
       <c r="G135" t="s">
@@ -8948,7 +8956,7 @@
       <c r="D137">
         <v>2</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="19" t="s">
         <v>297</v>
       </c>
       <c r="G137" t="s">
@@ -9003,7 +9011,7 @@
       <c r="D139">
         <v>2</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="19" t="s">
         <v>298</v>
       </c>
       <c r="G139" t="s">
@@ -9058,7 +9066,7 @@
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="19" t="s">
         <v>299</v>
       </c>
       <c r="G141" t="s">
@@ -9090,7 +9098,7 @@
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="19" t="s">
         <v>302</v>
       </c>
       <c r="G142" t="s">
@@ -9139,7 +9147,7 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="19" t="s">
         <v>303</v>
       </c>
       <c r="G144" t="s">
@@ -9165,7 +9173,7 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="19">
         <v>3230</v>
       </c>
       <c r="G145" t="s">
@@ -9191,7 +9199,7 @@
       <c r="D146">
         <v>2</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="19">
         <v>3240</v>
       </c>
       <c r="G146" t="s">
@@ -9217,7 +9225,7 @@
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G147" t="s">
@@ -9243,7 +9251,7 @@
       <c r="D148">
         <v>0</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="19" t="s">
         <v>551</v>
       </c>
       <c r="G148" t="s">
@@ -9269,7 +9277,7 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="19" t="s">
         <v>588</v>
       </c>
       <c r="G149" t="s">
@@ -9295,7 +9303,7 @@
       <c r="D150">
         <v>0</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="19" t="s">
         <v>552</v>
       </c>
       <c r="G150" t="s">
@@ -9321,7 +9329,7 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="19" t="s">
         <v>589</v>
       </c>
       <c r="G151" t="s">
@@ -9347,7 +9355,7 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="19" t="s">
         <v>553</v>
       </c>
       <c r="G152" t="s">
@@ -9370,7 +9378,7 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="19" t="s">
         <v>590</v>
       </c>
       <c r="G153" t="s">
@@ -9399,7 +9407,7 @@
       <c r="D154">
         <v>0</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="19" t="s">
         <v>551</v>
       </c>
       <c r="G154" t="s">
@@ -9428,7 +9436,7 @@
       <c r="D155">
         <v>0</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="19" t="s">
         <v>591</v>
       </c>
       <c r="G155" t="s">
@@ -9457,7 +9465,7 @@
       <c r="D156">
         <v>0</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="19" t="s">
         <v>592</v>
       </c>
       <c r="G156" t="s">
@@ -9510,7 +9518,7 @@
         <v>247</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K158"/>
     </row>
@@ -9525,9 +9533,9 @@
         <v>247</v>
       </c>
       <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="E159" s="19">
         <v>3300</v>
       </c>
       <c r="G159" t="s">
@@ -9556,7 +9564,7 @@
       <c r="D160">
         <v>2</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="19" t="s">
         <v>312</v>
       </c>
       <c r="G160" t="s">
@@ -9582,7 +9590,7 @@
       <c r="D161">
         <v>2</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="19" t="s">
         <v>313</v>
       </c>
       <c r="G161" t="s">
@@ -9654,7 +9662,7 @@
       <c r="D164">
         <v>2</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="19">
         <v>3302</v>
       </c>
       <c r="G164" t="s">
@@ -9680,7 +9688,7 @@
       <c r="D165">
         <v>2</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="19" t="s">
         <v>317</v>
       </c>
       <c r="G165" t="s">
@@ -9706,7 +9714,7 @@
       <c r="D166">
         <v>2</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="19">
         <v>3311</v>
       </c>
       <c r="G166" t="s">
@@ -9732,7 +9740,7 @@
       <c r="D167">
         <v>2</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="19" t="s">
         <v>555</v>
       </c>
       <c r="G167" t="s">
@@ -9758,7 +9766,7 @@
       <c r="D168">
         <v>2</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="19">
         <v>3350</v>
       </c>
       <c r="G168" t="s">
@@ -9784,7 +9792,7 @@
       <c r="D169">
         <v>2</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="19" t="s">
         <v>321</v>
       </c>
       <c r="G169" t="s">
@@ -9810,7 +9818,7 @@
       <c r="D170">
         <v>2</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="19" t="s">
         <v>322</v>
       </c>
       <c r="G170" t="s">
@@ -9865,7 +9873,7 @@
       <c r="D172">
         <v>0</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="19" t="s">
         <v>323</v>
       </c>
       <c r="G172" t="s">
@@ -9894,7 +9902,7 @@
       <c r="D173">
         <v>0</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="19" t="s">
         <v>323</v>
       </c>
       <c r="G173" t="s">
@@ -9923,7 +9931,7 @@
       <c r="D174">
         <v>1</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="19" t="s">
         <v>324</v>
       </c>
       <c r="G174" t="s">
@@ -9955,7 +9963,7 @@
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="19" t="s">
         <v>325</v>
       </c>
       <c r="G175" t="s">
@@ -9987,7 +9995,7 @@
       <c r="D176">
         <v>2</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="19" t="s">
         <v>326</v>
       </c>
       <c r="G176" t="s">
@@ -10019,7 +10027,7 @@
       <c r="D177">
         <v>2</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="19" t="s">
         <v>327</v>
       </c>
       <c r="G177" t="s">
@@ -10068,7 +10076,7 @@
       <c r="D179">
         <v>0</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="19" t="s">
         <v>328</v>
       </c>
       <c r="G179" t="s">
@@ -10123,7 +10131,7 @@
       <c r="D181">
         <v>0</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="19" t="s">
         <v>329</v>
       </c>
       <c r="G181" t="s">
@@ -10155,7 +10163,7 @@
       <c r="D182">
         <v>2</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="19" t="s">
         <v>330</v>
       </c>
       <c r="G182" t="s">
@@ -10204,7 +10212,7 @@
       <c r="D184">
         <v>3</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="19" t="s">
         <v>331</v>
       </c>
       <c r="G184" t="s">
@@ -10230,7 +10238,7 @@
       <c r="D185">
         <v>2</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="19" t="s">
         <v>332</v>
       </c>
       <c r="G185" t="s">
@@ -10256,7 +10264,7 @@
       <c r="D186">
         <v>2</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G186" t="s">
@@ -10282,7 +10290,7 @@
       <c r="D187">
         <v>2</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="19" t="s">
         <v>334</v>
       </c>
       <c r="G187" t="s">
@@ -10308,7 +10316,7 @@
       <c r="D188">
         <v>2</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="19" t="s">
         <v>335</v>
       </c>
       <c r="G188" t="s">
@@ -10334,7 +10342,7 @@
       <c r="D189">
         <v>2</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="19" t="s">
         <v>336</v>
       </c>
       <c r="G189" t="s">
@@ -10360,7 +10368,7 @@
       <c r="D190">
         <v>2</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="19" t="s">
         <v>337</v>
       </c>
       <c r="G190" t="s">
@@ -10386,7 +10394,7 @@
       <c r="D191">
         <v>2</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="19" t="s">
         <v>338</v>
       </c>
       <c r="G191" t="s">
@@ -10412,7 +10420,7 @@
       <c r="D192">
         <v>2</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="19" t="s">
         <v>556</v>
       </c>
       <c r="G192" t="s">
@@ -10438,7 +10446,7 @@
       <c r="D193">
         <v>2</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="19" t="s">
         <v>340</v>
       </c>
       <c r="G193" t="s">
@@ -10464,7 +10472,7 @@
       <c r="D194">
         <v>2</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="19" t="s">
         <v>341</v>
       </c>
       <c r="G194" t="s">
@@ -10490,7 +10498,7 @@
       <c r="D195">
         <v>0</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="19">
         <v>4000</v>
       </c>
       <c r="G195" t="s">
@@ -10556,7 +10564,7 @@
       <c r="D198">
         <v>4</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="19">
         <v>4000</v>
       </c>
       <c r="G198" s="14" t="s">
@@ -10611,7 +10619,7 @@
       <c r="D200">
         <v>2</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="19" t="s">
         <v>344</v>
       </c>
       <c r="G200" t="s">
@@ -10637,7 +10645,7 @@
       <c r="D201">
         <v>2</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="19">
         <v>4100</v>
       </c>
       <c r="G201" t="s">
@@ -10686,7 +10694,7 @@
       <c r="D203">
         <v>3</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="19">
         <v>4110</v>
       </c>
       <c r="G203" t="s">
@@ -10712,7 +10720,7 @@
       <c r="D204">
         <v>2</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="19">
         <v>4130</v>
       </c>
       <c r="G204" t="s">
@@ -10738,7 +10746,7 @@
       <c r="D205">
         <v>1</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="19">
         <v>4140</v>
       </c>
       <c r="G205" t="s">
@@ -10764,7 +10772,7 @@
       <c r="D206">
         <v>2</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="19" t="s">
         <v>557</v>
       </c>
       <c r="G206" t="s">
@@ -10790,7 +10798,7 @@
       <c r="D207">
         <v>2</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="19" t="s">
         <v>351</v>
       </c>
       <c r="G207" t="s">
@@ -10816,7 +10824,7 @@
       <c r="D208">
         <v>2</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="19">
         <v>4200</v>
       </c>
       <c r="G208" t="s">
@@ -10842,7 +10850,7 @@
       <c r="D209">
         <v>1</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="19" t="s">
         <v>355</v>
       </c>
       <c r="G209" t="s">
@@ -10940,7 +10948,7 @@
       <c r="D213">
         <v>2</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="19" t="s">
         <v>356</v>
       </c>
       <c r="G213" t="s">
@@ -10989,7 +10997,7 @@
       <c r="D215">
         <v>2</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="19" t="s">
         <v>357</v>
       </c>
       <c r="G215" t="s">
@@ -11038,7 +11046,7 @@
       <c r="D217">
         <v>2</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="19" t="s">
         <v>358</v>
       </c>
       <c r="G217" t="s">
@@ -11087,7 +11095,7 @@
       <c r="D219">
         <v>2</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="19" t="s">
         <v>359</v>
       </c>
       <c r="G219" t="s">
@@ -11113,7 +11121,7 @@
       <c r="D220">
         <v>2</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="19">
         <v>4230</v>
       </c>
       <c r="G220" t="s">
@@ -11139,7 +11147,7 @@
       <c r="D221">
         <v>1</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="19">
         <v>4240</v>
       </c>
       <c r="G221" t="s">
@@ -11165,7 +11173,7 @@
       <c r="D222">
         <v>2</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="19">
         <v>4250</v>
       </c>
       <c r="G222" t="s">
@@ -11214,7 +11222,7 @@
       <c r="D224">
         <v>2</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="19">
         <v>6110</v>
       </c>
       <c r="G224" t="s">
@@ -11240,7 +11248,7 @@
       <c r="D225">
         <v>2</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="19">
         <v>6400</v>
       </c>
       <c r="G225" t="s">
@@ -11286,7 +11294,7 @@
       <c r="D227">
         <v>3</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="19">
         <v>6430</v>
       </c>
       <c r="G227" t="s">
@@ -11330,7 +11338,7 @@
       <c r="D229">
         <v>2</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="19">
         <v>6440</v>
       </c>
       <c r="G229" t="s">
@@ -11379,7 +11387,7 @@
       <c r="D231">
         <v>3</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="19">
         <v>6450</v>
       </c>
       <c r="G231" t="s">
@@ -11428,7 +11436,7 @@
       <c r="D233">
         <v>0</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="19">
         <v>6480</v>
       </c>
       <c r="G233" t="s">
@@ -11500,7 +11508,7 @@
       <c r="D236">
         <v>3</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="19">
         <v>6530</v>
       </c>
       <c r="G236" t="s">
@@ -11549,7 +11557,7 @@
       <c r="D238">
         <v>3</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="19">
         <v>6540</v>
       </c>
       <c r="G238" t="s">
@@ -11590,7 +11598,7 @@
       <c r="D240">
         <v>5</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="19">
         <v>6540</v>
       </c>
       <c r="K240"/>
@@ -11608,7 +11616,7 @@
       <c r="D241">
         <v>1</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="19">
         <v>6550</v>
       </c>
       <c r="G241" t="s">
@@ -11634,7 +11642,7 @@
       <c r="D242">
         <v>1</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="19" t="s">
         <v>375</v>
       </c>
       <c r="G242" t="s">
@@ -11660,7 +11668,7 @@
       <c r="D243">
         <v>3</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="19">
         <v>7060</v>
       </c>
       <c r="G243" t="s">
@@ -11709,7 +11717,7 @@
       <c r="D245">
         <v>3</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="19" t="s">
         <v>376</v>
       </c>
       <c r="G245" t="s">
@@ -11735,7 +11743,7 @@
       <c r="D246">
         <v>2</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="19">
         <v>8020</v>
       </c>
       <c r="G246" t="s">
@@ -11761,7 +11769,7 @@
       <c r="D247">
         <v>1</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="19" t="s">
         <v>379</v>
       </c>
       <c r="G247" t="s">
@@ -11787,7 +11795,7 @@
       <c r="D248">
         <v>2</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="19">
         <v>8030</v>
       </c>
       <c r="G248" t="s">
@@ -11813,7 +11821,7 @@
       <c r="D249">
         <v>2</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="19">
         <v>8040</v>
       </c>
       <c r="G249" t="s">
@@ -11839,7 +11847,7 @@
       <c r="D250">
         <v>2</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="19">
         <v>8050</v>
       </c>
       <c r="G250" t="s">
@@ -11865,7 +11873,7 @@
       <c r="D251">
         <v>2</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="19">
         <v>8060</v>
       </c>
       <c r="G251" t="s">
@@ -11914,7 +11922,7 @@
       <c r="D253">
         <v>3</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="19">
         <v>8070</v>
       </c>
       <c r="G253" t="s">
@@ -11942,7 +11950,7 @@
       <c r="D254">
         <v>2</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="19">
         <v>8080</v>
       </c>
       <c r="G254" t="s">
@@ -11968,7 +11976,7 @@
       <c r="D255">
         <v>2</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="19">
         <v>8090</v>
       </c>
       <c r="G255" t="s">
@@ -11994,7 +12002,7 @@
       <c r="D256">
         <v>0</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="19" t="s">
         <v>612</v>
       </c>
       <c r="K256"/>
@@ -12035,7 +12043,7 @@
       <c r="D258">
         <v>0</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="19" t="s">
         <v>613</v>
       </c>
       <c r="K258"/>
@@ -24148,88 +24156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
-    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
-    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
-    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
-      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
-    </_dlc_DocIdUrl>
-    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Algemeen - Word" ma:contentTypeID="0x0101004F34529632943E4DBB820B36F0ABAA0606010086381A6D56669A4DB59F7772448721B1" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="8fe95572a7a7878b61abe4cdcaa95a61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d59e9867-4acc-40d5-91da-91f4047d1695" xmlns:ns3="fbe582d4-4cd9-4e01-adc0-428c7d30a990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b624776c1a3c75443e1a1b758f5efa1" ns2:_="" ns3:_="">
     <xsd:import namespace="d59e9867-4acc-40d5-91da-91f4047d1695"/>
@@ -24529,45 +24455,94 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
+    <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
+    <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
+    <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+    <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
+      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
+    </_dlc_DocIdUrl>
+    <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c1d69d6-3248-424b-85a1-c0d9ad05b603" ContentTypeId="0x0101004F34529632943E4DBB820B36F0ABAA060601" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
-    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743CA991-A91A-4ABA-A663-E5C279512219}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24586,6 +24561,39 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{629D2343-3DBC-4425-9979-C53AF3E8F60A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fbe582d4-4cd9-4e01-adc0-428c7d30a990"/>
+    <ds:schemaRef ds:uri="d59e9867-4acc-40d5-91da-91f4047d1695"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2BE5C7-D2B0-4B18-9D85-BE52E70FE1F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C93CFFD-81C7-408F-9360-B07E2D660303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A66FD23B-6941-41A1-8A1A-FC46E735FC7F}">
   <ds:schemaRefs>

--- a/pbelasting/input/190324_koppeltabel.xlsx
+++ b/pbelasting/input/190324_koppeltabel.xlsx
@@ -24767,7 +24767,7 @@
   <documentManagement>
     <Classificatie xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Intern</Classificatie>
     <Entiteit_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Record</Entiteit_x0020_type>
-    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-93060</_dlc_DocId>
+    <_dlc_DocId xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">PNHZET2ZRHHM-1647798991-177038</_dlc_DocId>
     <Aggregatieniveau xmlns="d59e9867-4acc-40d5-91da-91f4047d1695">Archiefstuk</Aggregatieniveau>
     <TaxCatchAll xmlns="d59e9867-4acc-40d5-91da-91f4047d1695"/>
     <Omschrijving xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
@@ -24777,8 +24777,8 @@
     <Aanmaakdatum xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
     <Document_x0020_type xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
     <_dlc_DocIdUrl xmlns="fbe582d4-4cd9-4e01-adc0-428c7d30a990">
-      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-93060</Url>
-      <Description>PNHZET2ZRHHM-1647798991-93060</Description>
+      <Url>https://waternet.sharepoint.com/sites/0182/_layouts/15/DocIdRedir.aspx?ID=PNHZET2ZRHHM-1647798991-177038</Url>
+      <Description>PNHZET2ZRHHM-1647798991-177038</Description>
     </_dlc_DocIdUrl>
     <Identificatiekenmerk xmlns="d59e9867-4acc-40d5-91da-91f4047d1695" xsi:nil="true"/>
   </documentManagement>
